--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1608,10 +1608,10 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1611,7 +1611,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
+      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="580" windowWidth="36440" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1597,7 +1597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1608,10 +1608,10 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -690,9 +690,6 @@
   </si>
   <si>
     <t>2131</t>
-  </si>
-  <si>
-    <t>Khlun Luk Him perustetaan</t>
   </si>
   <si>
     <t>Fa Jing absorboi lopullisesti thaimaalaisen pankin. Khlun Luk Him pitää kiinni itsenäisyydestään.</t>
@@ -936,6 +933,42 @@
   </si>
   <si>
     <t>Hyoden perustetaan</t>
+  </si>
+  <si>
+    <t>Chaloem syntyy Thaimaassa</t>
+  </si>
+  <si>
+    <t>Chaloem muuttaa Marsiin</t>
+  </si>
+  <si>
+    <t>Khlun Luk Him perustetaan. Chaloemista tulee turvallisuusvastaava.</t>
+  </si>
+  <si>
+    <t>Chaloem koettaa kehonsiirtoa rustermorfiin, mutta ei sopeudu tähän.</t>
+  </si>
+  <si>
+    <t>Chaloem jää eläkkeelle ja muuttaa Valles-New Shanghaihin. Nittayasta tulee Khlun Luk Himin turvapäällikkö.</t>
+  </si>
+  <si>
+    <t>LASF yrittää puhdistaa karanteenialueen pohjoisosaa, jotta Elysium-Hellas -rautatie aukeaisi uudelleen. Yritys päättyy huonosti ja johtaa TITAN-inkursioon sekä ohjusiskuihin alueelle.</t>
+  </si>
+  <si>
+    <t>Cardison Limited vaatii Curupiraa itselleen, koska se on ottanut haltuun suurimman osan Brasilian valtion omaisuudesta.</t>
+  </si>
+  <si>
+    <t>Experia ostaa Curupiran Pavonis Infrastructure Authoritylta</t>
+  </si>
+  <si>
+    <t>Experia lähettää uuden tutkimusryhmä Curupiraan, mutta tämä ei palaa.</t>
+  </si>
+  <si>
+    <t>Emeraldine-muusikko julkaisee ensilevynsä</t>
+  </si>
+  <si>
+    <t>3/2137</t>
+  </si>
+  <si>
+    <t>Salvador Morteñasta tulee CBEAT:in pääjohtaja</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,8 +1200,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1220,14 +1261,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1247,7 +1283,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1265,9 +1300,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1299,6 +1369,10 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1330,6 +1404,10 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1605,21 +1683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="58" customWidth="1"/>
     <col min="5" max="11" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1628,8 +1706,8 @@
         <v>100</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1645,10 +1723,10 @@
       <c r="B2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>173</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1673,20 +1751,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="37" customFormat="1" ht="30">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="A3" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B3" s="28">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
         <v>-60</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>264</v>
+      <c r="E3" s="46" t="s">
+        <v>263</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1695,20 +1773,20 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" s="37" customFormat="1" ht="30">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="A4" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="28">
         <f t="shared" si="0"/>
         <v>-59</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>233</v>
+      <c r="E4" s="46" t="s">
+        <v>232</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1717,27 +1795,27 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" s="37" customFormat="1" ht="30">
-      <c r="A5" s="35" t="s">
-        <v>239</v>
+    <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="A5" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="B5" s="28">
         <f t="shared" si="0"/>
         <v>-57</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="1"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="52" t="s">
-        <v>240</v>
+      <c r="G5" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="37" customFormat="1" ht="30">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="A6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="28">
@@ -1755,8 +1833,8 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="37" customFormat="1">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:11" s="32" customFormat="1">
+      <c r="A7" s="31" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="28">
@@ -1767,9 +1845,9 @@
         <v>169</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="52"/>
+        <v>240</v>
+      </c>
+      <c r="E7" s="46"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -1777,19 +1855,19 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="37" customFormat="1" ht="30">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="A8" s="31" t="s">
         <v>170</v>
       </c>
       <c r="B8" s="28">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1805,20 +1883,20 @@
         <f>A9-2134</f>
         <v>-47</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
@@ -1829,12 +1907,14 @@
         <f t="shared" ref="B10:B40" si="1">A10-2134</f>
         <v>-44</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="49" t="s">
+        <v>275</v>
+      </c>
       <c r="D10" s="24" t="s">
         <v>172</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
@@ -1847,23 +1927,23 @@
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="28">
         <f t="shared" si="1"/>
         <v>-43</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1871,16 +1951,16 @@
     </row>
     <row r="12" spans="1:11" ht="105">
       <c r="A12" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="24"/>
       <c r="F12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -1896,19 +1976,19 @@
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
@@ -1919,8 +1999,8 @@
         <f t="shared" si="1"/>
         <v>-38</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="17" t="s">
         <v>156</v>
       </c>
@@ -1932,16 +2012,16 @@
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="28">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="38" t="s">
-        <v>263</v>
+      <c r="C15" s="54"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="33" t="s">
+        <v>262</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1960,8 +2040,8 @@
       <c r="C16" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1980,29 +2060,29 @@
       <c r="C17" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30">
       <c r="A18" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="28">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="38" t="s">
-        <v>266</v>
+      <c r="D18" s="49"/>
+      <c r="E18" s="33" t="s">
+        <v>265</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -2013,20 +2093,20 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
         <v>-29</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="38"/>
+      <c r="D19" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="33"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2035,19 +2115,19 @@
     </row>
     <row r="20" spans="1:11" ht="45">
       <c r="A20" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -2064,7 +2144,7 @@
       <c r="C21" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2086,12 +2166,12 @@
       <c r="C22" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="49"/>
       <c r="F22" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2100,14 +2180,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" s="28">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="F23" s="17"/>
       <c r="G23" s="20"/>
       <c r="I23" s="17"/>
@@ -2122,12 +2204,12 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
@@ -2140,17 +2222,17 @@
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
         <v>-19</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -2171,10 +2253,10 @@
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>65</v>
@@ -2186,7 +2268,7 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
@@ -2195,7 +2277,7 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="F27" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2205,7 +2287,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
@@ -2246,10 +2328,10 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -2266,28 +2348,28 @@
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="49"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="53" t="s">
-        <v>236</v>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="47" t="s">
+        <v>235</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2304,9 +2386,9 @@
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="39" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="34" t="s">
         <v>187</v>
       </c>
       <c r="F33" s="17"/>
@@ -2324,9 +2406,9 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="40" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F34" s="17"/>
@@ -2347,11 +2429,11 @@
         <v>-7</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="39" t="s">
-        <v>251</v>
+        <v>216</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -2371,7 +2453,7 @@
       <c r="C36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="1" t="s">
         <v>189</v>
       </c>
@@ -2386,14 +2468,14 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="28"/>
+      <c r="D37" s="49"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -2401,7 +2483,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="45">
       <c r="A38" s="16" t="s">
         <v>137</v>
       </c>
@@ -2410,9 +2492,11 @@
         <v>-4</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="28"/>
+        <v>277</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>284</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>138</v>
       </c>
@@ -2434,7 +2518,7 @@
       <c r="C39" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -2447,12 +2531,12 @@
       <c r="A40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="5" t="s">
         <v>140</v>
       </c>
@@ -2467,12 +2551,12 @@
       <c r="A41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="37">
         <f t="shared" ref="B41:B51" si="2">RIGHT(A41,4)-2134</f>
         <v>-2</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8" t="s">
         <v>143</v>
       </c>
@@ -2483,18 +2567,18 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1">
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A42" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2507,12 +2591,12 @@
       <c r="A43" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56" t="s">
         <v>177</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -2531,12 +2615,12 @@
       <c r="A44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
@@ -2553,18 +2637,18 @@
       <c r="A45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31" t="s">
-        <v>218</v>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56" t="s">
+        <v>217</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
@@ -2576,12 +2660,12 @@
       <c r="A46" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="8" t="s">
         <v>153</v>
       </c>
@@ -2596,17 +2680,17 @@
       <c r="A47" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
@@ -2618,19 +2702,19 @@
       <c r="A48" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="8" t="s">
         <v>146</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2638,17 +2722,17 @@
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1">
       <c r="A49" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="42">
+        <v>219</v>
+      </c>
+      <c r="B49" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2660,12 +2744,12 @@
       <c r="A50" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2684,8 +2768,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="20" t="s">
         <v>86</v>
       </c>
@@ -2706,10 +2790,10 @@
         <f>RIGHT(A52,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="32"/>
+      <c r="C52" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="57"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -2726,15 +2810,15 @@
         <f>RIGHT(A53,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K53" s="21"/>
     </row>
@@ -2746,10 +2830,10 @@
         <f>RIGHT(A54,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C54" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="33"/>
+      <c r="C54" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="59"/>
       <c r="E54" s="20"/>
       <c r="F54" s="8" t="s">
         <v>90</v>
@@ -2768,10 +2852,10 @@
         <f>RIGHT(A55,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -2785,11 +2869,11 @@
         <v>97</v>
       </c>
       <c r="B56" s="16">
-        <f t="shared" ref="B56:B104" si="3">RIGHT(A56,4)-2134</f>
+        <f t="shared" ref="B56:B105" si="3">RIGHT(A56,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
@@ -2808,8 +2892,8 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="18"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -2820,165 +2904,164 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="16" t="s">
-        <v>84</v>
+    <row r="58" spans="1:11" ht="30">
+      <c r="A58" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="B58" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="G58" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="75">
+    <row r="59" spans="1:11">
       <c r="A59" s="16" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B59" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="45">
+    <row r="60" spans="1:11" ht="75">
       <c r="A60" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B60" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="18"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="G60" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="K60" s="17"/>
     </row>
     <row r="61" spans="1:11" ht="45">
       <c r="A61" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B61" s="16">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" ht="60">
+      <c r="K61" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" ht="60">
+      <c r="A63" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="60">
-      <c r="A63" s="44" t="s">
+    <row r="64" spans="1:11" ht="60">
+      <c r="A64" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B64" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="43" t="s">
+      <c r="C64" s="42"/>
+      <c r="D64" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-    </row>
-    <row r="64" spans="1:11" ht="30">
-      <c r="A64" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="16">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
     </row>
     <row r="65" spans="1:11" ht="30">
       <c r="A65" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B65" s="16">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="22" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -2987,36 +3070,37 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="30">
+    <row r="66" spans="1:11" ht="120">
       <c r="A66" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B66" s="16">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="22"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="60">
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="16" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B67" s="16">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C67" s="49"/>
       <c r="E67" s="22"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -3024,250 +3108,253 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="60">
       <c r="A68" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B68" s="16">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="30">
       <c r="A69" s="16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B69" s="16">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="C69" s="49"/>
+      <c r="E69" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="45">
       <c r="A70" s="16" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B70" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="17"/>
+      <c r="C70" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="F70" s="17"/>
-      <c r="G70" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11">
       <c r="A71" s="16" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B71" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="G71" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="45">
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="16" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B72" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="17" t="s">
-        <v>229</v>
-      </c>
+      <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="45">
       <c r="A73" s="16" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B73" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11" ht="60">
+      <c r="K73" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B74" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="G74" s="17"/>
-      <c r="H74" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="90">
+    <row r="75" spans="1:11" ht="60">
       <c r="A75" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B75" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="C75" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="49"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>80</v>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" ht="45">
+    <row r="76" spans="1:11" ht="90">
       <c r="A76" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B76" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30">
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11" ht="45">
       <c r="A77" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="17"/>
+      <c r="F77" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
+      <c r="K77" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="30">
       <c r="A78" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
-        <v>17</v>
+      <c r="G78" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="1:11" ht="45">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B79" s="16">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="17" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
+      <c r="G79" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -3275,367 +3362,367 @@
     </row>
     <row r="80" spans="1:11" ht="45">
       <c r="A80" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B80" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="17"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="F80" s="17"/>
-      <c r="G80" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="K80" s="17"/>
     </row>
     <row r="81" spans="1:11" ht="45">
       <c r="A81" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B81" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-    </row>
-    <row r="82" spans="1:11" ht="30">
+      <c r="K81" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="45">
       <c r="A82" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B82" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F82" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="1:11" ht="60">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B83" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="17" t="s">
-        <v>72</v>
+      <c r="G83" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="17" t="s">
-        <v>81</v>
-      </c>
+      <c r="K83" s="17"/>
     </row>
     <row r="84" spans="1:11" ht="60">
       <c r="A84" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B84" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B85" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="45">
       <c r="A86" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B86" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="17"/>
       <c r="G86" s="17" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
+      <c r="K86" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="60">
       <c r="A87" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B87" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="1:11" ht="60">
+      <c r="A88" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G88" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17" t="s">
+      <c r="H88" s="17"/>
+      <c r="I88" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17" t="s">
+      <c r="J88" s="17"/>
+      <c r="K88" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="120">
-      <c r="A88" s="16" t="s">
+    <row r="89" spans="1:11" ht="120">
+      <c r="A89" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B89" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="17" t="s">
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F89" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G89" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-    </row>
-    <row r="89" spans="1:11" ht="60">
-      <c r="A89" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="16">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="45">
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="1:11" ht="60">
       <c r="A90" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B90" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="105">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="16" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B91" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="17"/>
-      <c r="F91" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>225</v>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-    </row>
-    <row r="92" spans="1:11" ht="45">
+      <c r="K91" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="105">
       <c r="A92" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B92" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="17"/>
       <c r="F92" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
     </row>
-    <row r="93" spans="1:11" ht="30">
+    <row r="93" spans="1:11" ht="45">
       <c r="A93" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B93" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="17"/>
       <c r="F93" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
-    <row r="94" spans="1:11" ht="60">
+    <row r="94" spans="1:11" ht="30">
       <c r="A94" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B94" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="17"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30">
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" ht="60">
       <c r="A95" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B95" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="F95" s="8"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-    </row>
-    <row r="96" spans="1:11" ht="60">
+      <c r="K95" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30">
       <c r="A96" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B96" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="17"/>
       <c r="F96" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
@@ -3645,161 +3732,186 @@
     </row>
     <row r="97" spans="1:11" ht="60">
       <c r="A97" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B97" s="16">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="17"/>
       <c r="F97" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="45">
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="60">
       <c r="A98" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B98" s="16">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="17"/>
+        <v>282</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="45">
       <c r="A99" s="16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B99" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="17"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="60">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="45">
       <c r="A100" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B100" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C100" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="28"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="G100" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="75">
       <c r="A101" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B101" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="17"/>
+      <c r="C101" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="49"/>
+      <c r="E101" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="45">
       <c r="A102" s="16" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B102" s="16">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17" t="s">
-        <v>149</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="F102" s="17"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-    </row>
-    <row r="103" spans="1:11" ht="30">
-      <c r="A103" s="25" t="s">
+      <c r="K102" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="45">
+      <c r="A103" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="30">
+      <c r="A104" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="51">
+      <c r="B104" s="45">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38" t="s">
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="K103" s="38"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2" t="s">
+      <c r="K104" s="33"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="50">
+      <c r="B105" s="44">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C105" s="24" t="s">
         <v>201</v>
       </c>
     </row>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="3000" windowWidth="24480" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>Tyynenmeren avaruushissi tuhoutuu</t>
-  </si>
-  <si>
-    <t>6/2133</t>
   </si>
   <si>
     <t>2096</t>
@@ -969,6 +966,9 @@
   </si>
   <si>
     <t>Salvador Morteñasta tulee CBEAT:in pääjohtaja</t>
+  </si>
+  <si>
+    <t>25/6/2133</t>
   </si>
 </sst>
 </file>
@@ -1686,10 +1686,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="40">
       <c r="A2" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="3" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A3" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="28">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
@@ -1761,10 +1761,10 @@
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="4" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A4" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="28">
         <f t="shared" si="0"/>
@@ -1783,10 +1783,10 @@
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A5" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="28">
         <f t="shared" si="0"/>
@@ -1807,7 +1807,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1816,14 +1816,14 @@
     </row>
     <row r="6" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A6" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="28">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="20"/>
       <c r="F6" s="20"/>
@@ -1835,17 +1835,17 @@
     </row>
     <row r="7" spans="1:11" s="32" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="28">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="20"/>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="8" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A8" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="28">
         <f t="shared" si="0"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="20"/>
@@ -1886,17 +1886,17 @@
       <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
@@ -1908,13 +1908,13 @@
         <v>-44</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
@@ -1927,7 +1927,7 @@
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="28">
         <f t="shared" si="1"/>
@@ -1936,14 +1936,14 @@
       <c r="C11" s="49"/>
       <c r="D11" s="24"/>
       <c r="E11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="12" spans="1:11" ht="105">
       <c r="A12" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
@@ -1960,7 +1960,7 @@
       <c r="C12" s="49"/>
       <c r="D12" s="24"/>
       <c r="F12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -1982,18 +1982,18 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
       <c r="A14" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="28">
         <f t="shared" si="1"/>
@@ -2002,7 +2002,7 @@
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="28">
         <f t="shared" si="1"/>
@@ -2021,7 +2021,7 @@
       <c r="C15" s="54"/>
       <c r="D15" s="49"/>
       <c r="E15" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2031,14 +2031,14 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="28">
         <f t="shared" si="1"/>
         <v>-34</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="33"/>
@@ -2051,14 +2051,14 @@
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="28">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="33"/>
@@ -2068,12 +2068,12 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30">
       <c r="A18" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" s="28">
         <f t="shared" si="1"/>
@@ -2082,7 +2082,7 @@
       <c r="C18" s="24"/>
       <c r="D18" s="49"/>
       <c r="E18" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="20" spans="1:11" ht="45">
       <c r="A20" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
@@ -2127,7 +2127,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -2135,18 +2135,18 @@
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="28">
         <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2157,21 +2157,21 @@
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="28">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="49"/>
       <c r="F22" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2180,14 +2180,14 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="28">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D23" s="49"/>
       <c r="F23" s="17"/>
@@ -2206,10 +2206,10 @@
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
@@ -2232,7 +2232,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="33"/>
       <c r="F25" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -2249,14 +2249,14 @@
         <v>-18</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>65</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
@@ -2277,7 +2277,7 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="F27" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
@@ -2303,14 +2303,14 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="24"/>
       <c r="F29" s="17"/>
@@ -2331,7 +2331,7 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="31" spans="1:11" ht="45">
       <c r="A31" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="1"/>
@@ -2355,12 +2355,12 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="1"/>
@@ -2369,7 +2369,7 @@
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="1"/>
@@ -2389,7 +2389,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
       <c r="E33" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2409,7 +2409,7 @@
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
       <c r="E34" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
@@ -2422,18 +2422,18 @@
     </row>
     <row r="35" spans="1:11" ht="135">
       <c r="A35" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -2451,11 +2451,11 @@
         <v>-6</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17" t="s">
@@ -2468,7 +2468,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
@@ -2492,10 +2492,10 @@
         <v>-4</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>138</v>
@@ -2509,14 +2509,14 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="17"/>
@@ -2569,14 +2569,14 @@
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A42" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="8"/>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A43" s="7" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" si="2"/>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K43" s="8"/>
     </row>
@@ -2629,13 +2629,13 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="37">
         <f t="shared" si="2"/>
@@ -2643,16 +2643,16 @@
       </c>
       <c r="C45" s="56"/>
       <c r="D45" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K45" s="8"/>
     </row>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A47" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="37">
         <f t="shared" si="2"/>
@@ -2690,11 +2690,11 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K47" s="8"/>
     </row>
@@ -2714,7 +2714,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1">
       <c r="A49" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="37">
         <f t="shared" si="2"/>
@@ -2732,7 +2732,7 @@
       <c r="D49" s="56"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2784,14 +2784,14 @@
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A52" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="16">
         <f>RIGHT(A52,4)-2134</f>
         <v>1</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="20"/>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A53" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="16">
         <f>RIGHT(A53,4)-2134</f>
@@ -2818,7 +2818,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K53" s="21"/>
     </row>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="20"/>
@@ -2846,14 +2846,14 @@
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A55" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="16">
         <f>RIGHT(A55,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="20"/>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="58" spans="1:11" ht="30">
       <c r="A58" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="16">
         <f t="shared" si="3"/>
@@ -2917,7 +2917,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="17"/>
@@ -3033,14 +3033,14 @@
     </row>
     <row r="64" spans="1:11" ht="60">
       <c r="A64" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="42"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C66" s="49"/>
       <c r="D66" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>58</v>
@@ -3161,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D70" s="49"/>
       <c r="E70" s="17" t="s">
@@ -3226,7 +3226,7 @@
       <c r="D73" s="49"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3265,7 +3265,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="17"/>
@@ -3601,7 +3601,7 @@
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="45">
@@ -3641,7 +3641,7 @@
         <v>105</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
@@ -3761,7 +3761,7 @@
       <c r="C98" s="49"/>
       <c r="D98" s="49"/>
       <c r="E98" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>123</v>
@@ -3793,7 +3793,7 @@
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45">
@@ -3827,11 +3827,11 @@
         <v>12</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -3872,7 +3872,7 @@
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
       <c r="E103" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>149</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="104" spans="1:11" ht="30">
       <c r="A104" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104" s="45">
         <f t="shared" si="3"/>
@@ -3899,20 +3899,20 @@
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
       <c r="J104" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K104" s="33"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="44">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>200</v>
-      </c>
-      <c r="B105" s="44">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="3000" windowWidth="24480" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,9 +956,6 @@
     <t>Experia ostaa Curupiran Pavonis Infrastructure Authoritylta</t>
   </si>
   <si>
-    <t>Experia lähettää uuden tutkimusryhmä Curupiraan, mutta tämä ei palaa.</t>
-  </si>
-  <si>
     <t>Emeraldine-muusikko julkaisee ensilevynsä</t>
   </si>
   <si>
@@ -969,6 +966,9 @@
   </si>
   <si>
     <t>25/6/2133</t>
+  </si>
+  <si>
+    <t>Experia lähettää uuden tutkimusryhmän Curupiraan, mutta tämä ei palaa.</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1686,10 +1686,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2495,7 +2495,7 @@
         <v>276</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>138</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A43" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" si="2"/>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="58" spans="1:11" ht="30">
       <c r="A58" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" s="16">
         <f t="shared" si="3"/>
@@ -2917,7 +2917,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -3861,7 +3861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="60">
       <c r="A103" s="16" t="s">
         <v>148</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
       <c r="E103" s="17" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>149</v>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -914,18 +914,12 @@
     <t>Luna-Lagrange Alliance perustetaan</t>
   </si>
   <si>
-    <t>Ei-tuhoava upload-teknologia tulee käyttöön</t>
-  </si>
-  <si>
     <t>Kilimanjaron avaruushissi valmistuu</t>
   </si>
   <si>
     <t>Uploadattujen mielten palautus prototyyppitasolla</t>
   </si>
   <si>
-    <t>Tuhoisat uploadit esitellään</t>
-  </si>
-  <si>
     <t>Ger∂r perustetaan.</t>
   </si>
   <si>
@@ -969,13 +963,50 @@
   </si>
   <si>
     <t>Experia lähettää uuden tutkimusryhmän Curupiraan, mutta tämä ei palaa.</t>
+  </si>
+  <si>
+    <t>Pyhän istuimen evakuointialus saapuu Jupiterin avaruuteen</t>
+  </si>
+  <si>
+    <t>Tuhoisat uploadit esitellään. Katolinen kirkko asettuu ehdottomasti vastustamaan tätä, ja korostaa, että uploadaus on itsemurha.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ei-tuhoava upload-teknologia tulee käyttöön</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Paavi Klemens XV ei näe syytä muuttaa kirkon kantaa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Klemens XV valitaan paaviksi</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>Katolinen kirkko hyväksyy naispapit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1138,76 +1169,76 @@
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1221,26 +1252,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1258,8 +1289,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1271,22 +1302,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1306,10 +1337,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,13 +1714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1886,11 +1917,11 @@
       <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -1901,127 +1932,128 @@
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="16" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="B10" s="28">
-        <f t="shared" ref="B10:B40" si="1">A10-2134</f>
-        <v>-44</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>171</v>
-      </c>
+        <f>A10-2134</f>
+        <v>-45</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="60">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="16" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="B11" s="28">
-        <f t="shared" si="1"/>
-        <v>-43</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="24"/>
+        <f t="shared" ref="B11:B41" si="1">A11-2134</f>
+        <v>-44</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>246</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="105">
+    <row r="12" spans="1:11" ht="90">
       <c r="A12" s="16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
-        <v>-40</v>
+        <v>-43</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="24"/>
-      <c r="F12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>246</v>
+      </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11" ht="105">
       <c r="A13" s="16" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="B13" s="28">
         <f t="shared" si="1"/>
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>241</v>
-      </c>
+      <c r="D13" s="24"/>
+      <c r="F13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45">
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="30">
       <c r="A14" s="16" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B14" s="28">
         <f t="shared" si="1"/>
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="17" t="s">
-        <v>155</v>
+      <c r="D14" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="75">
+      <c r="K14" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45">
       <c r="A15" s="16" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="B15" s="28">
         <f t="shared" si="1"/>
-        <v>-37</v>
-      </c>
-      <c r="C15" s="54"/>
+        <v>-38</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="33" t="s">
-        <v>261</v>
+      <c r="E15" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2029,36 +2061,35 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="75">
       <c r="A16" s="16" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="B16" s="28">
         <f t="shared" si="1"/>
-        <v>-34</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>182</v>
-      </c>
+        <v>-37</v>
+      </c>
+      <c r="C16" s="54"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>261</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="30">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="28">
         <f t="shared" si="1"/>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="33"/>
@@ -2067,174 +2098,174 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="17" t="s">
-        <v>244</v>
-      </c>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" ht="30">
       <c r="A18" s="16" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B18" s="28">
         <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="C18" s="24"/>
+        <v>-33</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" s="49"/>
-      <c r="E18" s="33" t="s">
-        <v>264</v>
-      </c>
+      <c r="E18" s="33"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="60">
+      <c r="K18" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30">
       <c r="A19" s="16" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="33"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="33" t="s">
+        <v>264</v>
+      </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>253</v>
-      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="49" t="s">
+        <v>240</v>
+      </c>
       <c r="E20" s="33"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>245</v>
-      </c>
+      <c r="G20" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="30">
+    <row r="21" spans="1:11" ht="45">
       <c r="A21" s="16" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="B21" s="28">
         <f t="shared" si="1"/>
-        <v>-27</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>178</v>
-      </c>
+        <v>-28</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="E21" s="33"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B22" s="28">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="49"/>
-      <c r="F22" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>242</v>
-      </c>
+      <c r="E22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="30">
       <c r="A23" s="16" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="B23" s="28">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="D23" s="49"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>270</v>
-      </c>
+        <v>-23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="17"/>
+      <c r="G24" s="20"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="16" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
-        <v>-19</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="17"/>
+        <v>-20</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -2242,25 +2273,19 @@
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" s="16" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="B26" s="28">
         <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="22" t="s">
-        <v>267</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>65</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -2268,51 +2293,61 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="16" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>-18</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="D27" s="24"/>
+      <c r="E27" s="22" t="s">
+        <v>267</v>
+      </c>
       <c r="F27" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" s="17"/>
+        <v>257</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="24"/>
+      <c r="F28" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="16" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="24"/>
+        <v>-16</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="E29" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -2320,19 +2355,18 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" ht="30">
+    <row r="30" spans="1:11">
       <c r="A30" s="16" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="B30" s="28">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="18" t="s">
-        <v>268</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="24"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -2340,56 +2374,56 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11" ht="75">
       <c r="A31" s="16" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="18" t="s">
+        <v>287</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30">
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="16" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="47" t="s">
-        <v>234</v>
-      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30">
       <c r="A33" s="16" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
-      <c r="E33" s="34" t="s">
-        <v>186</v>
+      <c r="E33" s="47" t="s">
+        <v>234</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2398,108 +2432,104 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" ht="30">
+    <row r="34" spans="1:11">
       <c r="A34" s="16" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="B34" s="28">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
-      <c r="E34" s="35" t="s">
-        <v>187</v>
+      <c r="E34" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F34" s="17"/>
-      <c r="G34" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:11" ht="135">
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="16" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>215</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="49"/>
-      <c r="E35" s="34" t="s">
-        <v>249</v>
+      <c r="E35" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="135">
       <c r="A36" s="16" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="B36" s="28">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D36" s="49"/>
-      <c r="E36" s="1" t="s">
-        <v>188</v>
+      <c r="E36" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="16" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="C37" s="24"/>
+        <v>-6</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="D37" s="49"/>
+      <c r="E37" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11" ht="45">
+    <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="B38" s="28">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>138</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="49"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -2507,19 +2537,23 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="16" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="17"/>
+        <v>274</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2527,59 +2561,59 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:11" ht="30">
+      <c r="A40" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="28">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" s="6" customFormat="1">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B41" s="29">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="5" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="45">
-      <c r="A41" s="7" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="A42" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="37">
-        <f t="shared" ref="B41:B51" si="2">RIGHT(A41,4)-2134</f>
+      <c r="B42" s="37">
+        <f t="shared" ref="B42:B52" si="2">RIGHT(A42,4)-2134</f>
         <v>-2</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="8" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="30">
-      <c r="A42" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="37">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2589,96 +2623,96 @@
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A43" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="C43" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A44" s="7" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B44" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A45" s="7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B45" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="C45" s="56"/>
-      <c r="D45" s="56" t="s">
-        <v>216</v>
-      </c>
+      <c r="D45" s="56"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="30">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A46" s="7" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B46" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="D46" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="60">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A47" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="B47" s="37">
         <f t="shared" si="2"/>
@@ -2686,43 +2720,41 @@
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A48" s="7" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B48" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
-      <c r="E48" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1">
+    <row r="49" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A49" s="7" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B49" s="37">
         <f t="shared" si="2"/>
@@ -2730,19 +2762,23 @@
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="50" spans="1:11" s="9" customFormat="1">
       <c r="A50" s="7" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="B50" s="37">
         <f t="shared" si="2"/>
@@ -2751,113 +2787,113 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A51" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="16">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="A51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A52" s="23" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B52" s="16">
-        <f>RIGHT(A52,4)-2134</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>222</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="57"/>
       <c r="D52" s="57"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A53" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53" s="16">
         <f>RIGHT(A53,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>222</v>
+      </c>
       <c r="D53" s="57"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
-      <c r="J53" s="21" t="s">
-        <v>224</v>
-      </c>
+      <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="60">
-      <c r="A54" s="19" t="s">
-        <v>89</v>
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A54" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="B54" s="16">
         <f>RIGHT(A54,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="59"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="J54" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="60">
       <c r="A55" s="19" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B55" s="16">
         <f>RIGHT(A55,4)-2134</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
+      <c r="F55" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -2865,225 +2901,223 @@
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A56" s="23" t="s">
-        <v>97</v>
+      <c r="A56" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="B56" s="16">
-        <f t="shared" ref="B56:B105" si="3">RIGHT(A56,4)-2134</f>
+        <f>RIGHT(A56,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="59"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="21" t="s">
-        <v>98</v>
-      </c>
+      <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="30">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A57" s="23" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B57" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B57:B106" si="3">RIGHT(A57,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" ht="30">
       <c r="A58" s="23" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="B58" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
-        <v>284</v>
-      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="16" t="s">
-        <v>84</v>
+      <c r="K58" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30">
+      <c r="A59" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="B59" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="G59" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="75">
+    <row r="60" spans="1:11">
       <c r="A60" s="16" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B60" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C60" s="49"/>
-      <c r="D60" s="24" t="s">
-        <v>192</v>
-      </c>
+      <c r="D60" s="49"/>
       <c r="E60" s="18"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" ht="45">
+    <row r="61" spans="1:11" ht="75">
       <c r="A61" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B61" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="22"/>
+      <c r="D61" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="18"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="G61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="K61" s="17"/>
     </row>
     <row r="62" spans="1:11" ht="45">
       <c r="A62" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B62" s="16">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="49"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" ht="60">
+      <c r="K62" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="45">
       <c r="A63" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="C63" s="49"/>
       <c r="D63" s="49"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="17" t="s">
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="1:11" ht="60">
+      <c r="A64" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="16">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="60">
-      <c r="A64" s="39" t="s">
+    <row r="65" spans="1:11" ht="60">
+      <c r="A65" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B65" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="38" t="s">
+      <c r="C65" s="42"/>
+      <c r="D65" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-    </row>
-    <row r="65" spans="1:11" ht="30">
-      <c r="A65" s="16" t="s">
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" ht="30">
+      <c r="A66" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B66" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="22" t="s">
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" ht="120">
-      <c r="A66" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="16">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -3092,35 +3126,37 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="120">
       <c r="A67" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B67" s="16">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C67" s="49"/>
-      <c r="E67" s="22"/>
+      <c r="D67" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="60">
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="16" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B68" s="16">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
       <c r="E68" s="22"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -3128,75 +3164,75 @@
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="60">
       <c r="A69" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B69" s="16">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C69" s="49"/>
-      <c r="E69" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="D69" s="49"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="1:11" ht="45">
+      <c r="K69" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B70" s="16">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="C70" s="49"/>
+      <c r="E70" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="45">
       <c r="A71" s="16" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B71" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C71" s="49"/>
+      <c r="C71" s="48" t="s">
+        <v>275</v>
+      </c>
       <c r="D71" s="49"/>
-      <c r="E71" s="17"/>
+      <c r="E71" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="F71" s="17"/>
-      <c r="G71" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11">
       <c r="A72" s="16" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B72" s="16">
         <f t="shared" si="3"/>
@@ -3206,17 +3242,17 @@
       <c r="D72" s="49"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="G72" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="45">
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" ht="30">
       <c r="A73" s="16" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B73" s="16">
         <f t="shared" si="3"/>
@@ -3225,20 +3261,18 @@
       <c r="C73" s="49"/>
       <c r="D73" s="49"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="17" t="s">
-        <v>227</v>
-      </c>
+      <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="45">
       <c r="A74" s="16" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B74" s="16">
         <f t="shared" si="3"/>
@@ -3248,60 +3282,61 @@
       <c r="D74" s="49"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="1:11" ht="60">
+      <c r="K74" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B75" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C75" s="49" t="s">
-        <v>278</v>
-      </c>
+      <c r="C75" s="49"/>
       <c r="D75" s="49"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="G75" s="17"/>
-      <c r="H75" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" ht="90">
+    <row r="76" spans="1:11" ht="60">
       <c r="A76" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B76" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C76" s="49"/>
+      <c r="C76" s="49" t="s">
+        <v>276</v>
+      </c>
       <c r="D76" s="49"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>80</v>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="1:11" ht="45">
+    <row r="77" spans="1:11" ht="90">
       <c r="A77" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B77" s="16">
         <f t="shared" si="3"/>
@@ -3311,18 +3346,18 @@
       <c r="D77" s="49"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30">
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11" ht="45">
       <c r="A78" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78" s="16">
         <f t="shared" si="3"/>
@@ -3331,18 +3366,19 @@
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="17"/>
+      <c r="F78" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
+      <c r="K78" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="30">
       <c r="A79" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="16">
         <f t="shared" si="3"/>
@@ -3352,29 +3388,29 @@
       <c r="D79" s="49"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="17" t="s">
-        <v>17</v>
+      <c r="G79" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="1:11" ht="45">
+    <row r="80" spans="1:11" ht="30">
       <c r="A80" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B80" s="16">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="E80" s="17"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="G80" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -3382,7 +3418,7 @@
     </row>
     <row r="81" spans="1:11" ht="45">
       <c r="A81" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B81" s="16">
         <f t="shared" si="3"/>
@@ -3390,21 +3426,19 @@
       </c>
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
-      <c r="E81" s="17"/>
+      <c r="E81" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="F81" s="17"/>
-      <c r="G81" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="K81" s="17"/>
     </row>
     <row r="82" spans="1:11" ht="45">
       <c r="A82" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B82" s="16">
         <f t="shared" si="3"/>
@@ -3413,18 +3447,20 @@
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-    </row>
-    <row r="83" spans="1:11" ht="30">
+      <c r="K82" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="45">
       <c r="A83" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B83" s="16">
         <f t="shared" si="3"/>
@@ -3433,18 +3469,18 @@
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
       <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F83" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" spans="1:11" ht="60">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B84" s="16">
         <f t="shared" si="3"/>
@@ -3454,19 +3490,17 @@
       <c r="D84" s="49"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="17" t="s">
-        <v>72</v>
+      <c r="G84" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="17" t="s">
-        <v>81</v>
-      </c>
+      <c r="K84" s="17"/>
     </row>
     <row r="85" spans="1:11" ht="60">
       <c r="A85" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B85" s="16">
         <f t="shared" si="3"/>
@@ -3477,18 +3511,18 @@
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="60">
       <c r="A86" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B86" s="16">
         <f t="shared" si="3"/>
@@ -3496,23 +3530,21 @@
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="49"/>
-      <c r="E86" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="45">
       <c r="A87" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B87" s="16">
         <f t="shared" si="3"/>
@@ -3520,21 +3552,23 @@
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="E87" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87" s="17"/>
       <c r="G87" s="17" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+      <c r="K87" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="60">
       <c r="A88" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B88" s="16">
         <f t="shared" si="3"/>
@@ -3544,23 +3578,19 @@
       <c r="D88" s="49"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="H88" s="17"/>
-      <c r="I88" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="I88" s="17"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="120">
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" ht="60">
       <c r="A89" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B89" s="16">
         <f t="shared" si="3"/>
@@ -3568,45 +3598,49 @@
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="49"/>
-      <c r="E89" s="17" t="s">
-        <v>82</v>
-      </c>
+      <c r="E89" s="17"/>
       <c r="F89" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-    </row>
-    <row r="90" spans="1:11" ht="60">
+      <c r="K89" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="120">
       <c r="A90" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B90" s="16">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="49"/>
       <c r="D90" s="49"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="E90" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G90" s="17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="45">
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="1:11" ht="60">
       <c r="A91" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B91" s="16">
         <f t="shared" si="3"/>
@@ -3617,18 +3651,18 @@
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="105">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="45">
       <c r="A92" s="16" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B92" s="16">
         <f t="shared" si="3"/>
@@ -3637,20 +3671,20 @@
       <c r="C92" s="49"/>
       <c r="D92" s="49"/>
       <c r="E92" s="17"/>
-      <c r="F92" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>223</v>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-    </row>
-    <row r="93" spans="1:11" ht="45">
+      <c r="K92" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="105">
       <c r="A93" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B93" s="16">
         <f t="shared" si="3"/>
@@ -3660,19 +3694,19 @@
       <c r="D93" s="49"/>
       <c r="E93" s="17"/>
       <c r="F93" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
-    <row r="94" spans="1:11" ht="30">
+    <row r="94" spans="1:11" ht="45">
       <c r="A94" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B94" s="16">
         <f t="shared" si="3"/>
@@ -3682,17 +3716,19 @@
       <c r="D94" s="49"/>
       <c r="E94" s="17"/>
       <c r="F94" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" ht="60">
+    <row r="95" spans="1:11" ht="30">
       <c r="A95" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B95" s="16">
         <f t="shared" si="3"/>
@@ -3701,18 +3737,18 @@
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
-      <c r="K95" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="30">
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11" ht="60">
       <c r="A96" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B96" s="16">
         <f t="shared" si="3"/>
@@ -3721,18 +3757,18 @@
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="17"/>
-      <c r="F96" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="F96" s="8"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-    </row>
-    <row r="97" spans="1:11" ht="60">
+      <c r="K96" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="30">
       <c r="A97" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B97" s="16">
         <f t="shared" si="3"/>
@@ -3742,7 +3778,7 @@
       <c r="D97" s="49"/>
       <c r="E97" s="17"/>
       <c r="F97" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
@@ -3752,7 +3788,7 @@
     </row>
     <row r="98" spans="1:11" ht="60">
       <c r="A98" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B98" s="16">
         <f t="shared" si="3"/>
@@ -3760,45 +3796,43 @@
       </c>
       <c r="C98" s="49"/>
       <c r="D98" s="49"/>
-      <c r="E98" s="17" t="s">
-        <v>281</v>
-      </c>
+      <c r="E98" s="17"/>
       <c r="F98" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="45">
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="60">
       <c r="A99" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B99" s="16">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
       <c r="E99" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="17"/>
+        <v>279</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45">
       <c r="A100" s="16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B100" s="16">
         <f t="shared" si="3"/>
@@ -3806,112 +3840,134 @@
       </c>
       <c r="C100" s="49"/>
       <c r="D100" s="49"/>
-      <c r="E100" s="17"/>
+      <c r="E100" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="45">
       <c r="A101" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>198</v>
-      </c>
+      <c r="C101" s="49"/>
       <c r="D101" s="49"/>
-      <c r="E101" s="17" t="s">
-        <v>280</v>
-      </c>
+      <c r="E101" s="17"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
+      <c r="G101" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="75">
       <c r="A102" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B102" s="16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C102" s="49"/>
+      <c r="C102" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="D102" s="49"/>
+      <c r="E102" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="16" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B103" s="16">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
-      <c r="E103" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-    </row>
-    <row r="104" spans="1:11" ht="30">
-      <c r="A104" s="25" t="s">
+      <c r="K103" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="60">
+      <c r="A104" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" ht="30">
+      <c r="A105" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="45">
+      <c r="B105" s="45">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33" t="s">
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="K104" s="33"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2" t="s">
+      <c r="K105" s="33"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="44">
+      <c r="B106" s="44">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C106" s="24" t="s">
         <v>200</v>
       </c>
     </row>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Nittaya lähtee opiskelemaan ja tapaa Sunanin</t>
   </si>
   <si>
-    <t>Ma'adim Valisin tähtiportti löytyy</t>
-  </si>
-  <si>
     <t>6/2140</t>
   </si>
   <si>
@@ -645,9 +642,6 @@
   </si>
   <si>
     <t>03/2147</t>
-  </si>
-  <si>
-    <t>Mi-sook Ho katoaa</t>
   </si>
   <si>
     <t>02/2147</t>
@@ -994,12 +988,67 @@
   <si>
     <t>Katolinen kirkko hyväksyy naispapit</t>
   </si>
+  <si>
+    <t>Mi-sook Ho katoaa (9.2. 2147)</t>
+  </si>
+  <si>
+    <t>Shawn Winton saapuu Khlun Luk Himiin riehumaan</t>
+  </si>
+  <si>
+    <t>11/2146</t>
+  </si>
+  <si>
+    <t>Fajar Setiawanin malesialaisperäinen palvelija kertoo surkeasta kohtelusta</t>
+  </si>
+  <si>
+    <t>Fajar Setiawan päätyy suoraan Oaxaca-Maartensin palvelukseen ja saa Exalt-morfin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fajar Setiawanin tähdittämä </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lovers in Prayang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -spektaakkeli julkaistaan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ma'adim Valisin tähtiportti löytyy. Fajar Setiawanin ensimmäinen isompi XP-rooli </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knight of Air and Water</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,6 +1127,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1167,8 +1223,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1368,7 +1426,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1404,6 +1462,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1439,6 +1498,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1714,13 +1774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1755,7 +1815,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="51" t="s">
         <v>172</v>
@@ -1795,7 +1855,7 @@
         <v>165</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1817,7 +1877,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1828,7 +1888,7 @@
     </row>
     <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A5" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="28">
         <f t="shared" si="0"/>
@@ -1838,7 +1898,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1876,7 +1936,7 @@
         <v>168</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="20"/>
@@ -1917,22 +1977,22 @@
       <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="28">
         <f>A10-2134</f>
@@ -1941,7 +2001,7 @@
       <c r="C10" s="49"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1959,13 +2019,13 @@
         <v>-44</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -1978,7 +2038,7 @@
     </row>
     <row r="12" spans="1:11" ht="90">
       <c r="A12" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
@@ -1987,14 +2047,14 @@
       <c r="C12" s="49"/>
       <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2002,7 +2062,7 @@
     </row>
     <row r="13" spans="1:11" ht="105">
       <c r="A13" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B13" s="28">
         <f t="shared" si="1"/>
@@ -2011,7 +2071,7 @@
       <c r="C13" s="49"/>
       <c r="D13" s="24"/>
       <c r="F13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2033,13 +2093,13 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
@@ -2063,7 +2123,7 @@
     </row>
     <row r="16" spans="1:11" ht="75">
       <c r="A16" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="28">
         <f t="shared" si="1"/>
@@ -2072,7 +2132,7 @@
       <c r="C16" s="54"/>
       <c r="D16" s="49"/>
       <c r="E16" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2119,12 +2179,12 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
@@ -2133,7 +2193,7 @@
       <c r="C19" s="24"/>
       <c r="D19" s="49"/>
       <c r="E19" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2144,7 +2204,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
@@ -2152,12 +2212,12 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -2166,7 +2226,7 @@
     </row>
     <row r="21" spans="1:11" ht="45">
       <c r="A21" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B21" s="28">
         <f t="shared" si="1"/>
@@ -2178,7 +2238,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -2219,10 +2279,10 @@
       </c>
       <c r="D23" s="49"/>
       <c r="F23" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -2231,14 +2291,14 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="49"/>
       <c r="F24" s="17"/>
@@ -2257,10 +2317,10 @@
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
@@ -2273,7 +2333,7 @@
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="28">
         <f t="shared" si="1"/>
@@ -2283,7 +2343,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="33"/>
       <c r="F26" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -2304,10 +2364,10 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>65</v>
@@ -2319,7 +2379,7 @@
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
@@ -2328,7 +2388,7 @@
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="F28" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -2338,7 +2398,7 @@
     </row>
     <row r="29" spans="1:11" ht="30">
       <c r="A29" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
@@ -2346,7 +2406,7 @@
       </c>
       <c r="C29" s="24"/>
       <c r="E29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -2385,7 +2445,7 @@
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -2409,12 +2469,12 @@
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="1"/>
@@ -2423,7 +2483,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
       <c r="E33" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2483,11 +2543,11 @@
         <v>-7</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -2522,7 +2582,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="28">
         <f t="shared" si="1"/>
@@ -2546,10 +2606,10 @@
         <v>-4</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>138</v>
@@ -2563,7 +2623,7 @@
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B40" s="28">
         <f t="shared" si="1"/>
@@ -2623,14 +2683,14 @@
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A43" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="8"/>
@@ -2643,7 +2703,7 @@
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A44" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" s="37">
         <f t="shared" si="2"/>
@@ -2661,7 +2721,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K44" s="8"/>
     </row>
@@ -2683,13 +2743,13 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A46" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" s="37">
         <f t="shared" si="2"/>
@@ -2697,16 +2757,16 @@
       </c>
       <c r="C46" s="56"/>
       <c r="D46" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K46" s="8"/>
     </row>
@@ -2732,7 +2792,7 @@
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A48" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B48" s="37">
         <f t="shared" si="2"/>
@@ -2744,11 +2804,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K48" s="8"/>
     </row>
@@ -2767,10 +2827,10 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2778,7 +2838,7 @@
     </row>
     <row r="50" spans="1:11" s="9" customFormat="1">
       <c r="A50" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B50" s="37">
         <f t="shared" si="2"/>
@@ -2788,7 +2848,7 @@
       <c r="D50" s="56"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2840,14 +2900,14 @@
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A53" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="16">
         <f>RIGHT(A53,4)-2134</f>
         <v>1</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="20"/>
@@ -2860,7 +2920,7 @@
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A54" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="16">
         <f>RIGHT(A54,4)-2134</f>
@@ -2874,7 +2934,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K54" s="21"/>
     </row>
@@ -2887,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="20"/>
@@ -2902,14 +2962,14 @@
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A56" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56" s="16">
         <f>RIGHT(A56,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="20"/>
@@ -2925,7 +2985,7 @@
         <v>97</v>
       </c>
       <c r="B57" s="16">
-        <f t="shared" ref="B57:B106" si="3">RIGHT(A57,4)-2134</f>
+        <f t="shared" ref="B57:B107" si="3">RIGHT(A57,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C57" s="57"/>
@@ -2940,7 +3000,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" ht="30">
+    <row r="58" spans="1:11" ht="60">
       <c r="A58" s="23" t="s">
         <v>42</v>
       </c>
@@ -2949,7 +3009,9 @@
         <v>2</v>
       </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="D58" s="57" t="s">
+        <v>293</v>
+      </c>
       <c r="E58" s="18"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -2962,7 +3024,7 @@
     </row>
     <row r="59" spans="1:11" ht="30">
       <c r="A59" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B59" s="16">
         <f t="shared" si="3"/>
@@ -2973,7 +3035,7 @@
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -3010,7 +3072,7 @@
       </c>
       <c r="C61" s="49"/>
       <c r="D61" s="24" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="17"/>
@@ -3089,14 +3151,14 @@
     </row>
     <row r="65" spans="1:11" ht="60">
       <c r="A65" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="42"/>
@@ -3136,7 +3198,7 @@
       </c>
       <c r="C67" s="49"/>
       <c r="D67" s="49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>58</v>
@@ -3217,7 +3279,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="17" t="s">
@@ -3282,7 +3344,7 @@
       <c r="D74" s="49"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3321,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="17"/>
@@ -3657,7 +3719,7 @@
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45">
@@ -3697,7 +3759,7 @@
         <v>105</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3817,7 +3879,7 @@
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
       <c r="E99" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>123</v>
@@ -3849,7 +3911,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="45">
@@ -3883,11 +3945,11 @@
         <v>12</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
@@ -3898,7 +3960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="60">
       <c r="A103" s="16" t="s">
         <v>130</v>
       </c>
@@ -3907,7 +3969,9 @@
         <v>12</v>
       </c>
       <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="D103" s="49" t="s">
+        <v>294</v>
+      </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -3919,56 +3983,77 @@
     </row>
     <row r="104" spans="1:11" ht="60">
       <c r="A104" s="16" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="B104" s="16">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="D104" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="1:11" ht="30">
-      <c r="A105" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="45">
+    <row r="105" spans="1:11" ht="60">
+      <c r="A105" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="K105" s="33"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2" t="s">
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="1:11" ht="30">
+      <c r="A106" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B106" s="44">
+      <c r="B106" s="45">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C106" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="54"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33" t="s">
         <v>200</v>
+      </c>
+      <c r="K106" s="33"/>
+    </row>
+    <row r="107" spans="1:11" ht="30">
+      <c r="A107" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="44">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Muu</t>
   </si>
   <si>
-    <t>17 minuutin sota: JOTO muuttuu Jupiterin tasavallaksi</t>
-  </si>
-  <si>
     <t>1/2143</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
   </si>
   <si>
     <t>2095</t>
-  </si>
-  <si>
-    <t>Marsin terraformauksen katsotaan alkavan</t>
   </si>
   <si>
     <t>[SIELUPANKKI] Cipangon taistelu</t>
@@ -824,9 +818,6 @@
     <t>Qurain perustetaan</t>
   </si>
   <si>
-    <t>Elysium perustetaan</t>
-  </si>
-  <si>
     <t>San Pedro perustetaan Ganymedelle</t>
   </si>
   <si>
@@ -903,9 +894,6 @@
   </si>
   <si>
     <t>Marsin avaruushissi valmistuu</t>
-  </si>
-  <si>
-    <t>Luna-Lagrange Alliance perustetaan</t>
   </si>
   <si>
     <t>Kilimanjaron avaruushissi valmistuu</t>
@@ -1043,19 +1031,115 @@
       <t>Knight of Air and Water</t>
     </r>
   </si>
+  <si>
+    <t>Lunar skyhook rakennetaan</t>
+  </si>
+  <si>
+    <t>Selene Station valmistuu.</t>
+  </si>
+  <si>
+    <t>Lunan skyhookista tulee oikea kiertoratahissi.</t>
+  </si>
+  <si>
+    <t>New Nectarin rakentaminen alkaa</t>
+  </si>
+  <si>
+    <t>2/2143</t>
+  </si>
+  <si>
+    <t>New Nectar valmistuu</t>
+  </si>
+  <si>
+    <t>Elysium perustetaan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 minuutin sota: JOTO muuttuu Jupiterin tasavallaksi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jupiterin tasavallan kansallispäivä.</t>
+    </r>
+  </si>
+  <si>
+    <t>Marsin terraformauksen katsotaan alkavan.</t>
+  </si>
+  <si>
+    <t>18/4/2095</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tharsis-liitto perustetaan kaupunkien yhteistyökomiteaksi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tharsis-liiton kansallispäivä</t>
+    </r>
+  </si>
+  <si>
+    <t>19.12. 2116 Plurality perustetaan - Titanin kansanyhteisön kansallispäivä.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luna-Lagrange Alliance perustetaan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Selene Stationin rakentaminen skyhookin päähän alkaa</t>
+    </r>
+  </si>
+  <si>
+    <t>11/2139</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan ensimmäistä kertaa LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>11/2143</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan toisen kerran LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>Morningstar Coalition eroaa PC:stä.</t>
+  </si>
+  <si>
+    <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1133,6 +1217,11 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1223,82 +1312,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1310,26 +1407,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1347,8 +1444,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1360,22 +1457,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1395,10 +1492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,8 +1522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1463,6 +1564,10 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1499,6 +1604,10 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1774,13 +1883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1794,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="29">
       <c r="A1" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="50"/>
@@ -1809,16 +1918,16 @@
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="40">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
@@ -1839,12 +1948,12 @@
         <v>5</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A3" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="28">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
@@ -1852,10 +1961,10 @@
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1866,7 +1975,7 @@
     </row>
     <row r="4" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A4" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="28">
         <f t="shared" si="0"/>
@@ -1874,10 +1983,10 @@
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1888,7 +1997,7 @@
     </row>
     <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A5" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="28">
         <f t="shared" si="0"/>
@@ -1898,7 +2007,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1907,14 +2016,14 @@
     </row>
     <row r="6" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A6" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="28">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="20"/>
       <c r="F6" s="20"/>
@@ -1926,17 +2035,17 @@
     </row>
     <row r="7" spans="1:11" s="32" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="28">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="20"/>
@@ -1948,7 +2057,7 @@
     </row>
     <row r="8" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A8" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="28">
         <f t="shared" si="0"/>
@@ -1956,7 +2065,7 @@
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="20"/>
@@ -1968,7 +2077,7 @@
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="28">
         <f>A9-2134</f>
@@ -1977,22 +2086,22 @@
       <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B10" s="28">
         <f>A10-2134</f>
@@ -2001,7 +2110,7 @@
       <c r="C10" s="49"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2012,24 +2121,24 @@
     </row>
     <row r="11" spans="1:11" ht="30">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="28">
-        <f t="shared" ref="B11:B41" si="1">A11-2134</f>
+        <f t="shared" ref="B11:B42" si="1">A11-2134</f>
         <v>-44</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -2038,7 +2147,7 @@
     </row>
     <row r="12" spans="1:11" ht="90">
       <c r="A12" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
@@ -2047,14 +2156,14 @@
       <c r="C12" s="49"/>
       <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2062,7 +2171,7 @@
     </row>
     <row r="13" spans="1:11" ht="105">
       <c r="A13" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B13" s="28">
         <f t="shared" si="1"/>
@@ -2071,7 +2180,7 @@
       <c r="C13" s="49"/>
       <c r="D13" s="24"/>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2081,7 +2190,7 @@
     </row>
     <row r="14" spans="1:11" ht="30">
       <c r="A14" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="28">
         <f t="shared" si="1"/>
@@ -2089,50 +2198,50 @@
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="17" t="s">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75">
       <c r="A15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="28">
-        <f t="shared" si="1"/>
-        <v>-38</v>
+        <v>301</v>
+      </c>
+      <c r="B15" s="60">
+        <f t="shared" ref="B15" si="2">RIGHT(A15,4)-2134</f>
+        <v>-39</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="17" t="s">
-        <v>155</v>
+      <c r="D15" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="75">
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="45">
       <c r="A16" s="16" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="B16" s="28">
         <f t="shared" si="1"/>
-        <v>-37</v>
-      </c>
-      <c r="C16" s="54"/>
+        <v>-38</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="33" t="s">
-        <v>259</v>
+      <c r="E16" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2140,36 +2249,35 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="75">
       <c r="A17" s="16" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="B17" s="28">
         <f t="shared" si="1"/>
-        <v>-34</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>182</v>
-      </c>
+        <v>-37</v>
+      </c>
+      <c r="C17" s="54"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>256</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="30">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B18" s="28">
         <f t="shared" si="1"/>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="33"/>
@@ -2178,174 +2286,176 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="17" t="s">
-        <v>242</v>
-      </c>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="16" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="C19" s="24"/>
+        <v>-33</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" s="49"/>
       <c r="E19" s="33" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="60">
+      <c r="K19" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30">
       <c r="A20" s="16" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="33"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="33" t="s">
+        <v>259</v>
+      </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>251</v>
-      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="45">
+    <row r="21" spans="1:11" ht="60">
       <c r="A21" s="16" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B21" s="28">
         <f t="shared" si="1"/>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>298</v>
+      </c>
       <c r="E21" s="33"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
-        <v>243</v>
-      </c>
+      <c r="G21" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="16" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="B22" s="28">
         <f t="shared" si="1"/>
-        <v>-27</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>178</v>
-      </c>
+        <v>-28</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="E22" s="33"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B23" s="28">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" s="49"/>
-      <c r="F23" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="E23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="16" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11">
       <c r="A25" s="16" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" s="17" t="s">
+        <v>-23</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>267</v>
       </c>
+      <c r="D25" s="49"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="17"/>
+      <c r="G25" s="20"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" s="16" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="B26" s="28">
         <f t="shared" si="1"/>
-        <v>-19</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="17"/>
+        <v>-20</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -2353,80 +2463,82 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="16" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22" t="s">
-        <v>265</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>65</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="60">
       <c r="A28" s="16" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="C28" s="24"/>
+        <v>-18</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="D28" s="24"/>
+      <c r="E28" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="F28" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="30">
       <c r="A29" s="16" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="E29" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="D29" s="24"/>
+      <c r="F29" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="16" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="B30" s="28">
         <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="24"/>
+        <v>-16</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="E30" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -2434,76 +2546,77 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:11" ht="75">
+    <row r="31" spans="1:11">
       <c r="A31" s="16" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="18" t="s">
-        <v>285</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="24"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
+    <row r="32" spans="1:11" ht="75">
       <c r="A32" s="16" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="18" t="s">
+        <v>281</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30">
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="45">
       <c r="A33" s="16" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="47" t="s">
-        <v>232</v>
+      <c r="E33" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="16" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B34" s="28">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
-      <c r="E34" s="34" t="s">
-        <v>186</v>
+      <c r="E34" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -2512,108 +2625,104 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:11">
       <c r="A35" s="16" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
-      <c r="E35" s="35" t="s">
-        <v>187</v>
+      <c r="E35" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="F35" s="17"/>
-      <c r="G35" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="135">
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="16" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B36" s="28">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>213</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="C36" s="49"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="34" t="s">
-        <v>247</v>
+      <c r="E36" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11" ht="30">
+    <row r="37" spans="1:11" ht="135">
       <c r="A37" s="16" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D37" s="49"/>
-      <c r="E37" s="1" t="s">
-        <v>188</v>
+      <c r="E37" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="16" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="B38" s="28">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="C38" s="24"/>
+        <v>-6</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="D38" s="49"/>
+      <c r="E38" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11" ht="45">
+    <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>138</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="49"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2621,19 +2730,23 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="30">
+    <row r="40" spans="1:11" ht="45">
       <c r="A40" s="16" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B40" s="28">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="17"/>
+        <v>268</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -2641,59 +2754,59 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1">
-      <c r="A41" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="29">
+    <row r="41" spans="1:11" ht="30">
+      <c r="A41" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="28">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" s="6" customFormat="1">
+      <c r="A42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="29">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="5" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="A43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="45">
-      <c r="A42" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="37">
-        <f t="shared" ref="B42:B52" si="2">RIGHT(A42,4)-2134</f>
+      <c r="B43" s="37">
+        <f t="shared" ref="B43:B53" si="3">RIGHT(A43,4)-2134</f>
         <v>-2</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="30">
-      <c r="A43" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="37">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>210</v>
-      </c>
+      <c r="C43" s="56"/>
       <c r="D43" s="56"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2703,277 +2816,281 @@
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A44" s="7" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="B44" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="C44" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A45" s="7" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="B45" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A46" s="7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="B46" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C46" s="56"/>
-      <c r="D46" s="56" t="s">
-        <v>214</v>
-      </c>
+      <c r="D46" s="56"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>228</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="30">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A47" s="7" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B47" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="D47" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="60">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A48" s="7" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="B48" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="49" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A49" s="7" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="B49" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="D49" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
-        <v>283</v>
-      </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A50" s="7" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="B50" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="45">
+    <row r="51" spans="1:11" s="9" customFormat="1">
       <c r="A51" s="7" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="B51" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A52" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="16">
-        <f t="shared" si="2"/>
+    <row r="52" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="A52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="37">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A53" s="23" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="B53" s="16">
-        <f>RIGHT(A53,4)-2134</f>
-        <v>1</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>220</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="57"/>
       <c r="D53" s="57"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A54" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B54" s="16">
         <f>RIGHT(A54,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="36" t="s">
+        <v>218</v>
+      </c>
       <c r="D54" s="57"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
-      <c r="J54" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="60">
-      <c r="A55" s="19" t="s">
-        <v>89</v>
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A55" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="B55" s="16">
         <f>RIGHT(A55,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="J55" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="60">
       <c r="A56" s="19" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="B56" s="16">
         <f>RIGHT(A56,4)-2134</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
+      <c r="F56" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -2981,560 +3098,561 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A57" s="23" t="s">
-        <v>97</v>
+      <c r="A57" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="B57" s="16">
-        <f t="shared" ref="B57:B107" si="3">RIGHT(A57,4)-2134</f>
+        <f>RIGHT(A57,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="59"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="21" t="s">
-        <v>98</v>
-      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" ht="60">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A58" s="23" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B58" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B58:B111" si="4">RIGHT(A58,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30">
+      <c r="D58" s="57"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" ht="60">
       <c r="A59" s="23" t="s">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="B59" s="16">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="D59" s="57" t="s">
+        <v>289</v>
+      </c>
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
-        <v>280</v>
-      </c>
+      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="16" t="s">
-        <v>84</v>
+      <c r="K59" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="30">
+      <c r="A60" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="B60" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="18"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="G60" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" ht="75">
+    <row r="61" spans="1:11">
       <c r="A61" s="16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B61" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C61" s="49"/>
-      <c r="D61" s="24" t="s">
-        <v>295</v>
-      </c>
+      <c r="D61" s="49"/>
       <c r="E61" s="18"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:11" ht="45">
+    <row r="62" spans="1:11" ht="75">
       <c r="A62" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B62" s="16">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="22"/>
+      <c r="D62" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="18"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="G62" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" ht="45">
       <c r="A63" s="16" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B63" s="16">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="22" t="s">
+        <v>295</v>
+      </c>
       <c r="F63" s="17"/>
-      <c r="G63" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-    </row>
-    <row r="64" spans="1:11" ht="60">
+      <c r="K63" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="45">
       <c r="A64" s="16" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="B64" s="16">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C64" s="49"/>
       <c r="D64" s="49"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="E64" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="60">
-      <c r="A65" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-    </row>
-    <row r="66" spans="1:11" ht="30">
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="45">
+      <c r="A65" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" ht="60">
       <c r="A66" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B66" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="49"/>
       <c r="D66" s="49"/>
-      <c r="E66" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="1:11" ht="120">
-      <c r="A67" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="16">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="K66" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="60">
+      <c r="A67" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="42"/>
+      <c r="D67" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="1:11" ht="30">
       <c r="A68" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B68" s="16">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="C68" s="49"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="60">
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" ht="120">
       <c r="A69" s="16" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B69" s="16">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="17" t="s">
-        <v>96</v>
-      </c>
+      <c r="K69" s="17"/>
     </row>
     <row r="70" spans="1:11" ht="30">
       <c r="A70" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B70" s="16">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="C70" s="49"/>
-      <c r="E70" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="E70" s="22"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" ht="45">
+      <c r="K70" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="60">
       <c r="A71" s="16" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B71" s="16">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>273</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C71" s="49"/>
       <c r="D71" s="49"/>
-      <c r="E71" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="E71" s="22"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B72" s="16">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="F72" s="17"/>
-      <c r="G72" s="8" t="s">
-        <v>9</v>
+      <c r="G72" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="30">
+    <row r="73" spans="1:11" ht="45">
       <c r="A73" s="16" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B73" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C73" s="49"/>
+      <c r="C73" s="48" t="s">
+        <v>269</v>
+      </c>
       <c r="D73" s="49"/>
-      <c r="E73" s="17"/>
+      <c r="E73" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="45">
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="16" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="B74" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49" t="s">
+        <v>297</v>
+      </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="17" t="s">
-        <v>225</v>
-      </c>
+      <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="K74" s="17"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="16" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B75" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C75" s="49"/>
       <c r="D75" s="49"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" ht="60">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="16" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B76" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="49" t="s">
-        <v>274</v>
-      </c>
+      <c r="C76" s="49"/>
       <c r="D76" s="49"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="1:11" ht="90">
+      <c r="K76" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45">
       <c r="A77" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B77" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" ht="45">
+      <c r="K77" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B78" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30">
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11" ht="60">
       <c r="A79" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B79" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C79" s="49"/>
+      <c r="C79" s="49" t="s">
+        <v>270</v>
+      </c>
       <c r="D79" s="49"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="1:11" ht="30">
+    <row r="80" spans="1:11" ht="90">
       <c r="A80" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B80" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="F80" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="G80" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="17"/>
+        <v>79</v>
+      </c>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="1:11" ht="45">
+    <row r="81" spans="1:11" ht="30">
       <c r="A81" s="16" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="B81" s="16">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
       <c r="E81" s="17" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
     <row r="82" spans="1:11" ht="45">
       <c r="A82" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B82" s="16">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="17"/>
+      <c r="F82" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B83" s="16">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
       <c r="E83" s="17"/>
-      <c r="F83" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -3542,52 +3660,50 @@
     </row>
     <row r="84" spans="1:11" ht="30">
       <c r="A84" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B84" s="16">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="C84" s="49"/>
       <c r="D84" s="49"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="8" t="s">
-        <v>34</v>
+      <c r="G84" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="1:11" ht="60">
+    <row r="85" spans="1:11" ht="45">
       <c r="A85" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B85" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C85" s="49"/>
       <c r="D85" s="49"/>
-      <c r="E85" s="17"/>
+      <c r="E85" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="60">
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="1:11" ht="45">
       <c r="A86" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B86" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C86" s="49"/>
@@ -3595,55 +3711,49 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="45">
       <c r="A87" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B87" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
-      <c r="E87" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
-      <c r="K87" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="60">
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="1:11" ht="30">
       <c r="A88" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B88" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C88" s="49"/>
       <c r="D88" s="49"/>
       <c r="E88" s="17"/>
-      <c r="F88" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>71</v>
+      <c r="F88" s="17"/>
+      <c r="G88" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -3652,408 +3762,498 @@
     </row>
     <row r="89" spans="1:11" ht="60">
       <c r="A89" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B89" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="49"/>
       <c r="E89" s="17"/>
-      <c r="F89" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="F89" s="17"/>
       <c r="G89" s="17" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="H89" s="17"/>
-      <c r="I89" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="120">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="60">
       <c r="A90" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B90" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C90" s="49"/>
       <c r="D90" s="49"/>
-      <c r="E90" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="17" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-    </row>
-    <row r="91" spans="1:11" ht="60">
+      <c r="K90" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="45">
       <c r="A91" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B91" s="16">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="C91" s="49"/>
       <c r="D91" s="49"/>
-      <c r="E91" s="17"/>
+      <c r="E91" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="60">
       <c r="A92" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B92" s="16">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="C92" s="49"/>
       <c r="D92" s="49"/>
       <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="G92" s="17" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="105">
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="1:11" ht="60">
       <c r="A93" s="16" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B93" s="16">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="C93" s="49"/>
       <c r="D93" s="49"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>221</v>
+      <c r="F93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
+      <c r="I93" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-    </row>
-    <row r="94" spans="1:11" ht="45">
+      <c r="K93" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="120">
       <c r="A94" s="16" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B94" s="16">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>121</v>
+      <c r="E94" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" ht="30">
+    <row r="95" spans="1:11" ht="60">
       <c r="A95" s="16" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="B95" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-    </row>
-    <row r="96" spans="1:11" ht="60">
+      <c r="K95" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="45">
       <c r="A96" s="16" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B96" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="17"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="105">
       <c r="A97" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B97" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="17"/>
       <c r="F97" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" ht="60">
+    <row r="98" spans="1:11" ht="45">
       <c r="A98" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B98" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C98" s="49"/>
       <c r="D98" s="49"/>
       <c r="E98" s="17"/>
       <c r="F98" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11" ht="60">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B99" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="E99" s="17"/>
       <c r="F99" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
-      <c r="K99" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45">
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="1:11" ht="60">
       <c r="A100" s="16" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B100" s="16">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="C100" s="49"/>
       <c r="D100" s="49"/>
-      <c r="E100" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30">
       <c r="A101" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B101" s="16">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="F101" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
-      <c r="K101" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="75">
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" ht="60">
       <c r="A102" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B102" s="16">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>197</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C102" s="49"/>
       <c r="D102" s="49"/>
-      <c r="E102" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
-      <c r="K102" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:11" ht="60">
       <c r="A103" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B103" s="16">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="C103" s="49"/>
-      <c r="D103" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="F103" s="17"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="60">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="45">
       <c r="A104" s="16" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="B104" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>292</v>
+      <c r="D104" s="49"/>
+      <c r="E104" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-    </row>
-    <row r="105" spans="1:11" ht="60">
+      <c r="K104" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="45">
       <c r="A105" s="16" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B105" s="16">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
-      <c r="E105" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-    </row>
-    <row r="106" spans="1:11" ht="30">
-      <c r="A106" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B106" s="45">
-        <f t="shared" si="3"/>
+      <c r="K105" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="75">
+      <c r="A106" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="49"/>
+      <c r="E106" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="60">
+      <c r="A107" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="60">
+      <c r="A108" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:11" ht="60">
+      <c r="A109" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="16">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D106" s="54"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="K106" s="33"/>
-    </row>
-    <row r="107" spans="1:11" ht="30">
-      <c r="A107" s="2" t="s">
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="1:11" ht="30">
+      <c r="A110" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="45">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" s="54"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="44">
-        <f t="shared" si="3"/>
+      <c r="K110" s="33"/>
+    </row>
+    <row r="111" spans="1:11" ht="30">
+      <c r="A111" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="44">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C107" s="58" t="s">
-        <v>290</v>
+      <c r="C111" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5240" yWindow="3240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>2130</t>
-  </si>
-  <si>
-    <t>Curupira valmistuu</t>
   </si>
   <si>
     <t>2132</t>
@@ -1133,6 +1130,15 @@
   </si>
   <si>
     <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
+  </si>
+  <si>
+    <t>Curupira valmistuu. Asteroidi 2094-FA saapuu Marsin korkealle kiertoradalle.</t>
+  </si>
+  <si>
+    <t>12/2146</t>
+  </si>
+  <si>
+    <t>Mi-sook Ho'n viimeinen varmuuskopio Khlun Luk Himissä (27.12.)</t>
   </si>
 </sst>
 </file>
@@ -1883,13 +1889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1918,16 +1924,16 @@
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="40">
       <c r="A2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
@@ -1948,12 +1954,12 @@
         <v>5</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A3" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="28">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
@@ -1961,10 +1967,10 @@
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1975,7 +1981,7 @@
     </row>
     <row r="4" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A4" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="28">
         <f t="shared" si="0"/>
@@ -1983,10 +1989,10 @@
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1997,7 +2003,7 @@
     </row>
     <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A5" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="28">
         <f t="shared" si="0"/>
@@ -2007,7 +2013,7 @@
       <c r="D5" s="1"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -2016,14 +2022,14 @@
     </row>
     <row r="6" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A6" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="28">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="20"/>
       <c r="F6" s="20"/>
@@ -2035,17 +2041,17 @@
     </row>
     <row r="7" spans="1:11" s="32" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="28">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="20"/>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="8" spans="1:11" s="32" customFormat="1" ht="30">
       <c r="A8" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="28">
         <f t="shared" si="0"/>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="20"/>
@@ -2086,22 +2092,22 @@
       <c r="C9" s="49"/>
       <c r="D9" s="17"/>
       <c r="E9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="28">
         <f>A10-2134</f>
@@ -2110,7 +2116,7 @@
       <c r="C10" s="49"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2128,13 +2134,13 @@
         <v>-44</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -2147,7 +2153,7 @@
     </row>
     <row r="12" spans="1:11" ht="90">
       <c r="A12" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="28">
         <f t="shared" si="1"/>
@@ -2156,14 +2162,14 @@
       <c r="C12" s="49"/>
       <c r="D12" s="24"/>
       <c r="E12" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="13" spans="1:11" ht="105">
       <c r="A13" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="28">
         <f t="shared" si="1"/>
@@ -2180,7 +2186,7 @@
       <c r="C13" s="49"/>
       <c r="D13" s="24"/>
       <c r="F13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2198,22 +2204,22 @@
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="60">
         <f t="shared" ref="B15" si="2">RIGHT(A15,4)-2134</f>
@@ -2221,7 +2227,7 @@
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2232,7 +2238,7 @@
     </row>
     <row r="16" spans="1:11" ht="45">
       <c r="A16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="28">
         <f t="shared" si="1"/>
@@ -2241,7 +2247,7 @@
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="28">
         <f t="shared" si="1"/>
@@ -2260,7 +2266,7 @@
       <c r="C17" s="54"/>
       <c r="D17" s="49"/>
       <c r="E17" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2270,14 +2276,14 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="28">
         <f t="shared" si="1"/>
         <v>-34</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="33"/>
@@ -2290,18 +2296,18 @@
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="28">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2309,12 +2315,12 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="28">
         <f t="shared" si="1"/>
@@ -2323,7 +2329,7 @@
       <c r="C20" s="24"/>
       <c r="D20" s="49"/>
       <c r="E20" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2334,7 +2340,7 @@
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="28">
         <f t="shared" si="1"/>
@@ -2342,12 +2348,12 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -2356,7 +2362,7 @@
     </row>
     <row r="22" spans="1:11" ht="45">
       <c r="A22" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="28">
         <f t="shared" si="1"/>
@@ -2368,7 +2374,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -2376,18 +2382,18 @@
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="28">
         <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -2398,21 +2404,21 @@
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="49"/>
       <c r="F24" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2421,14 +2427,14 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="49"/>
       <c r="F25" s="17"/>
@@ -2447,10 +2453,10 @@
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
@@ -2463,7 +2469,7 @@
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
@@ -2473,7 +2479,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="33"/>
       <c r="F27" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2490,20 +2496,20 @@
         <v>-18</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -2511,7 +2517,7 @@
     </row>
     <row r="29" spans="1:11" ht="30">
       <c r="A29" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
@@ -2520,7 +2526,7 @@
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="F29" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="17"/>
       <c r="I29" s="17"/>
@@ -2529,7 +2535,7 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="28">
         <f t="shared" si="1"/>
@@ -2537,7 +2543,7 @@
       </c>
       <c r="C30" s="24"/>
       <c r="E30" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -2548,14 +2554,14 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="24"/>
       <c r="F31" s="17"/>
@@ -2575,7 +2581,7 @@
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="33" spans="1:11" ht="45">
       <c r="A33" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" si="1"/>
@@ -2594,7 +2600,7 @@
       </c>
       <c r="C33" s="49"/>
       <c r="E33" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2602,12 +2608,12 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="28">
         <f t="shared" si="1"/>
@@ -2616,7 +2622,7 @@
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
       <c r="E34" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -2627,7 +2633,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="1"/>
@@ -2636,7 +2642,7 @@
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -2656,7 +2662,7 @@
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
       <c r="E36" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17" t="s">
@@ -2669,18 +2675,18 @@
     </row>
     <row r="37" spans="1:11" ht="135">
       <c r="A37" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -2698,11 +2704,11 @@
         <v>-6</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
@@ -2715,7 +2721,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="1"/>
@@ -2730,7 +2736,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="45">
+    <row r="40" spans="1:11" ht="60">
       <c r="A40" s="16" t="s">
         <v>135</v>
       </c>
@@ -2739,13 +2745,13 @@
         <v>-4</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -2756,14 +2762,14 @@
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="28">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="17"/>
@@ -2776,7 +2782,7 @@
     </row>
     <row r="42" spans="1:11" s="6" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="29">
         <f t="shared" si="1"/>
@@ -2785,7 +2791,7 @@
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2796,7 +2802,7 @@
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A43" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" ref="B43:B53" si="3">RIGHT(A43,4)-2134</f>
@@ -2805,7 +2811,7 @@
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
       <c r="E43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2816,14 +2822,14 @@
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A44" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="8"/>
@@ -2836,7 +2842,7 @@
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A45" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" s="37">
         <f t="shared" si="3"/>
@@ -2844,23 +2850,23 @@
       </c>
       <c r="C45" s="56"/>
       <c r="D45" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A46" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="37">
         <f t="shared" si="3"/>
@@ -2871,18 +2877,18 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="37">
         <f t="shared" si="3"/>
@@ -2890,22 +2896,22 @@
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="30">
       <c r="A48" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="37">
         <f t="shared" si="3"/>
@@ -2914,7 +2920,7 @@
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
       <c r="E48" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2925,7 +2931,7 @@
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" ht="60">
       <c r="A49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="37">
         <f t="shared" si="3"/>
@@ -2933,23 +2939,23 @@
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" s="9" customFormat="1" ht="45">
       <c r="A50" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="37">
         <f t="shared" si="3"/>
@@ -2958,14 +2964,14 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="51" spans="1:11" s="9" customFormat="1">
       <c r="A51" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="37">
         <f t="shared" si="3"/>
@@ -2983,7 +2989,7 @@
       <c r="D51" s="56"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3005,7 +3011,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -3035,14 +3041,14 @@
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A54" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="16">
         <f>RIGHT(A54,4)-2134</f>
         <v>1</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="57"/>
       <c r="E54" s="20"/>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A55" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="16">
         <f>RIGHT(A55,4)-2134</f>
@@ -3064,14 +3070,14 @@
       <c r="C55" s="36"/>
       <c r="D55" s="57"/>
       <c r="E55" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K55" s="21"/>
     </row>
@@ -3084,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="20"/>
@@ -3099,14 +3105,14 @@
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A57" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57" s="16">
         <f>RIGHT(A57,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="59"/>
       <c r="E57" s="20"/>
@@ -3122,7 +3128,7 @@
         <v>96</v>
       </c>
       <c r="B58" s="16">
-        <f t="shared" ref="B58:B111" si="4">RIGHT(A58,4)-2134</f>
+        <f t="shared" ref="B58:B112" si="4">RIGHT(A58,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C58" s="57"/>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="17"/>
@@ -3161,7 +3167,7 @@
     </row>
     <row r="60" spans="1:11" ht="30">
       <c r="A60" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" s="16">
         <f t="shared" si="4"/>
@@ -3172,7 +3178,7 @@
       <c r="E60" s="18"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -3209,7 +3215,7 @@
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="17"/>
@@ -3232,7 +3238,7 @@
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
       <c r="E63" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -3247,7 +3253,7 @@
     </row>
     <row r="64" spans="1:11" ht="45">
       <c r="A64" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" si="4"/>
@@ -3256,7 +3262,7 @@
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
       <c r="E64" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -3276,7 +3282,7 @@
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
       <c r="E65" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17" t="s">
@@ -3312,14 +3318,14 @@
     </row>
     <row r="67" spans="1:11" ht="60">
       <c r="A67" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="42"/>
@@ -3359,7 +3365,7 @@
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>57</v>
@@ -3440,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="17" t="s">
@@ -3455,7 +3461,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" s="16">
         <f t="shared" si="4"/>
@@ -3463,7 +3469,7 @@
       </c>
       <c r="C74" s="48"/>
       <c r="D74" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
@@ -3525,7 +3531,7 @@
       <c r="D77" s="49"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3564,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="17"/>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="81" spans="1:11" ht="30">
       <c r="A81" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="16">
         <f t="shared" si="4"/>
@@ -3609,7 +3615,7 @@
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
       <c r="E81" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
@@ -3919,7 +3925,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45">
@@ -3959,7 +3965,7 @@
         <v>104</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
@@ -4060,7 +4066,7 @@
       <c r="D102" s="49"/>
       <c r="E102" s="17"/>
       <c r="F102" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
@@ -4079,7 +4085,7 @@
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
       <c r="E103" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>122</v>
@@ -4111,7 +4117,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="45">
@@ -4127,7 +4133,7 @@
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -4145,11 +4151,11 @@
         <v>12</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D106" s="49"/>
       <c r="E106" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="C107" s="49"/>
       <c r="D107" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
@@ -4183,7 +4189,7 @@
     </row>
     <row r="108" spans="1:11" ht="60">
       <c r="A108" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B108" s="16">
         <f t="shared" si="4"/>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
@@ -4200,60 +4206,79 @@
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
     </row>
-    <row r="109" spans="1:11" ht="60">
+    <row r="109" spans="1:11" ht="45">
       <c r="A109" s="16" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="B109" s="16">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C109" s="49"/>
+        <v>12</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>312</v>
+      </c>
       <c r="D109" s="49"/>
-      <c r="E109" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>147</v>
-      </c>
+      <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
     </row>
-    <row r="110" spans="1:11" ht="30">
-      <c r="A110" s="25" t="s">
+    <row r="110" spans="1:11" ht="60">
+      <c r="A110" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="16">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="1:11" ht="30">
+      <c r="A111" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="45">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D111" s="54"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B110" s="45">
+      <c r="K111" s="33"/>
+    </row>
+    <row r="112" spans="1:11" ht="30">
+      <c r="A112" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="44">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C112" s="58" t="s">
         <v>285</v>
-      </c>
-      <c r="D110" s="54"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="K110" s="33"/>
-    </row>
-    <row r="111" spans="1:11" ht="30">
-      <c r="A111" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="44">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="3240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -1091,6 +1091,30 @@
     <t>19.12. 2116 Plurality perustetaan - Titanin kansanyhteisön kansallispäivä.</t>
   </si>
   <si>
+    <t>11/2139</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan ensimmäistä kertaa LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>11/2143</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan toisen kerran LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
+  </si>
+  <si>
+    <t>Curupira valmistuu. Asteroidi 2094-FA saapuu Marsin korkealle kiertoradalle.</t>
+  </si>
+  <si>
+    <t>12/2146</t>
+  </si>
+  <si>
+    <t>Mi-sook Ho'n viimeinen varmuuskopio Khlun Luk Himissä (27.12.)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1110,35 +1134,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Selene Stationin rakentaminen skyhookin päähän alkaa</t>
+      <t xml:space="preserve"> Selene Stationin rakentaminen skyhookin päähän alkaa. TX Wang syntyy Hong Kongissa.</t>
     </r>
   </si>
   <si>
-    <t>11/2139</t>
-  </si>
-  <si>
-    <t>Avra Don valitaan ensimmäistä kertaa LLA:n presidentiksi</t>
-  </si>
-  <si>
-    <t>11/2143</t>
-  </si>
-  <si>
-    <t>Avra Don valitaan toisen kerran LLA:n presidentiksi</t>
-  </si>
-  <si>
-    <t>Morningstar Coalition eroaa PC:stä.</t>
-  </si>
-  <si>
-    <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
-  </si>
-  <si>
-    <t>Curupira valmistuu. Asteroidi 2094-FA saapuu Marsin korkealle kiertoradalle.</t>
-  </si>
-  <si>
-    <t>12/2146</t>
-  </si>
-  <si>
-    <t>Mi-sook Ho'n viimeinen varmuuskopio Khlun Luk Himissä (27.12.)</t>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>Madison Bell syntyy Hellas Plaintiassa</t>
+  </si>
+  <si>
+    <t>Little Shanghain kupolin rakentaminen alkaa</t>
+  </si>
+  <si>
+    <t>Little Shanghai otetaan käyttöön ja pakolaiset siirretään sinne.</t>
+  </si>
+  <si>
+    <t>1/2135</t>
+  </si>
+  <si>
+    <t>TX Wangin viimeinen varmuuskopio</t>
+  </si>
+  <si>
+    <t>Morningstar Constellation eroaa PC:stä.</t>
+  </si>
+  <si>
+    <t>Cale Ortega syntyy</t>
+  </si>
+  <si>
+    <t>Cale Ortega pidätetään</t>
+  </si>
+  <si>
+    <t>[HAUNTING MARS] Fukumitsu Aya</t>
+  </si>
+  <si>
+    <t>FA-2094 löydetään</t>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos aloittaa toimintansa kiertoradan stabiloiduttua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FA-2094 hinataan Marsin kiertoradalle. Asteroidin omistajaksi päätyy </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Offworld CE</t>
+    </r>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos hylätään. 17 työntekijästä 11 pakenee, loput joutuvat OCE:n koneälyn surmaamiksi ja assimiloimiksi.</t>
+  </si>
+  <si>
+    <t>07/2146</t>
+  </si>
+  <si>
+    <t>Solariksen rahastonhallinnan asiantuntijajärjestelmä perustaa Licorne de l'Ouestin</t>
+  </si>
+  <si>
+    <t>Kontraktorit tarkistavat Fukumitsu Ayan, toteavat sen enimmäkseen ehjäksi, ja uudelleenaktivoivat egocasterin sekä fuusioreaktorin.</t>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos uudelleenaktivoidaan.</t>
+  </si>
+  <si>
+    <t>OCE:n järjestelmä aktivoituu FA:n syvyydessä.</t>
+  </si>
+  <si>
+    <t>Exsurgent-virus nujertaa koneälyn, joka on pesiytynyt FA:n järjestelmään</t>
+  </si>
+  <si>
+    <t>OCE:n järjestelmän energia loppuu ja se vajoaa unitilaan</t>
+  </si>
+  <si>
+    <t>Forinda Grigor ja Shyam Anikki tulevat OCE:n kaappaamaksi</t>
+  </si>
+  <si>
+    <t>Yunus Bankin värväämä nelikko saapuu FA:lle työnjohtajiksi</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,6 +1344,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,8 +1490,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1532,8 +1624,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1574,6 +1687,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1614,6 +1728,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1889,40 +2004,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="58" customWidth="1"/>
-    <col min="5" max="11" width="24" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.83203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="58" customWidth="1"/>
+    <col min="6" max="12" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="29">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="29">
       <c r="A1" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
-      <c r="E1" s="15"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="40">
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="40">
       <c r="A2" s="10" t="s">
         <v>155</v>
       </c>
@@ -1933,31 +2049,34 @@
         <v>223</v>
       </c>
       <c r="D2" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="32" customFormat="1" ht="30">
       <c r="A3" s="31" t="s">
         <v>158</v>
       </c>
@@ -1966,20 +2085,21 @@
         <v>-60</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" s="32" customFormat="1" ht="30">
       <c r="A4" s="31" t="s">
         <v>159</v>
       </c>
@@ -1988,20 +2108,21 @@
         <v>-59</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="30">
       <c r="A5" s="31" t="s">
         <v>232</v>
       </c>
@@ -2010,17 +2131,18 @@
         <v>-57</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="30">
       <c r="A6" s="31" t="s">
         <v>160</v>
       </c>
@@ -2031,15 +2153,16 @@
       <c r="C6" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" s="32" customFormat="1">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>161</v>
       </c>
@@ -2050,18 +2173,19 @@
       <c r="C7" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" s="32" customFormat="1" ht="30">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="30">
       <c r="A8" s="31" t="s">
         <v>166</v>
       </c>
@@ -2070,18 +2194,19 @@
         <v>-50</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="60">
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="60">
       <c r="A9" s="16" t="s">
         <v>59</v>
       </c>
@@ -2090,22 +2215,23 @@
         <v>-47</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="16" t="s">
         <v>282</v>
       </c>
@@ -2114,44 +2240,46 @@
         <v>-45</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="30">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="28">
-        <f t="shared" ref="B11:B42" si="1">A11-2134</f>
+        <f t="shared" ref="B11:B43" si="1">A11-2134</f>
         <v>-44</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="90">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="90">
       <c r="A12" s="16" t="s">
         <v>237</v>
       </c>
@@ -2160,22 +2288,23 @@
         <v>-43</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="105">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="105">
       <c r="A13" s="16" t="s">
         <v>249</v>
       </c>
@@ -2184,17 +2313,20 @@
         <v>-40</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="G13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="30">
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="16" t="s">
         <v>131</v>
       </c>
@@ -2203,21 +2335,22 @@
         <v>-39</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75">
+    <row r="15" spans="1:12" ht="75">
       <c r="A15" s="16" t="s">
         <v>300</v>
       </c>
@@ -2226,17 +2359,18 @@
         <v>-39</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="45">
+      <c r="K15" s="17"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="16" t="s">
         <v>151</v>
       </c>
@@ -2246,16 +2380,17 @@
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="75">
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="75">
       <c r="A17" s="16" t="s">
         <v>254</v>
       </c>
@@ -2264,17 +2399,18 @@
         <v>-37</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="16" t="s">
         <v>177</v>
       </c>
@@ -2285,16 +2421,17 @@
       <c r="C18" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="30">
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="16" t="s">
         <v>178</v>
       </c>
@@ -2305,20 +2442,21 @@
       <c r="C19" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="17"/>
+      <c r="L19" s="17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
@@ -2327,18 +2465,19 @@
         <v>-30</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="60">
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="60">
       <c r="A21" s="16" t="s">
         <v>224</v>
       </c>
@@ -2347,20 +2486,21 @@
         <v>-29</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="45">
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="16" t="s">
         <v>245</v>
       </c>
@@ -2369,18 +2509,19 @@
         <v>-28</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="17"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="30">
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="30">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -2391,615 +2532,658 @@
       <c r="C23" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" ht="30">
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="16" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" si="1"/>
-        <v>-24</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="F24" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>236</v>
-      </c>
+        <v>-26</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="16" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="49"/>
+      <c r="G25" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="30">
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="16" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="B26" s="28">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+        <v>-23</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="20"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" ht="30">
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="16" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="B27" s="28">
         <f t="shared" si="1"/>
-        <v>-19</v>
-      </c>
-      <c r="C27" s="54"/>
+        <v>-20</v>
+      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="54"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="24" t="s">
+        <v>260</v>
+      </c>
       <c r="F27" s="17" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="60">
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="16" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="B28" s="28">
         <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>251</v>
-      </c>
+        <v>-19</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>302</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="30">
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="90">
       <c r="A29" s="16" t="s">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="B29" s="28">
         <f t="shared" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="C29" s="24"/>
+        <v>-18</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>153</v>
+      </c>
       <c r="D29" s="24"/>
-      <c r="F29" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="30">
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B30" s="28">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="E30" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="30">
       <c r="A31" s="16" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B31" s="28">
         <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>157</v>
-      </c>
+        <v>-16</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" s="24"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="75">
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="16" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="B32" s="28">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="17"/>
+        <v>-15</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" ht="45">
-      <c r="A33" s="16" t="s">
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" s="70" customFormat="1" ht="75">
+      <c r="A33" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="66">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12" ht="45">
+      <c r="A34" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B34" s="28">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="E33" s="1" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="54"/>
+      <c r="F34" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30">
-      <c r="A34" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B34" s="28">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" s="16" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="B35" s="28">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
-      <c r="E35" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="17"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="30">
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="16" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="B36" s="28">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="135">
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="16" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="B37" s="28">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>210</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="C37" s="49"/>
       <c r="D37" s="49"/>
-      <c r="E37" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="17"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="35" t="s">
+        <v>184</v>
+      </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="30">
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" ht="135">
       <c r="A38" s="16" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="B38" s="28">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="30">
       <c r="A39" s="16" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="B39" s="28">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="49"/>
-      <c r="F39" s="17"/>
+        <v>-6</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="H39" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="1:11" ht="60">
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="16" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="B40" s="28">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="F40" s="17"/>
+        <v>-5</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="49"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="1:11" ht="30">
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" ht="60">
       <c r="A41" s="16" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="B41" s="28">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+        <v>267</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>308</v>
+      </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" s="6" customFormat="1">
-      <c r="A42" s="4" t="s">
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" ht="30">
+      <c r="A42" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="28">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1">
+      <c r="A43" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B43" s="29">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="5" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="45">
-      <c r="A43" s="7" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" s="9" customFormat="1" ht="45">
+      <c r="A44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="37">
-        <f t="shared" ref="B43:B53" si="3">RIGHT(A43,4)-2134</f>
+      <c r="B44" s="37">
+        <f t="shared" ref="B44:B55" si="3">RIGHT(A44,4)-2134</f>
         <v>-2</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="8" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="30">
-      <c r="A44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="37">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="30">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" s="9" customFormat="1" ht="45">
       <c r="A45" s="7" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="B45" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="56" t="s">
+        <v>207</v>
+      </c>
       <c r="D45" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E45" s="56"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="60">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" s="9" customFormat="1" ht="75">
       <c r="A46" s="7" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="B46" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
-        <v>298</v>
-      </c>
+      <c r="D46" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" s="9" customFormat="1" ht="60">
       <c r="A47" s="7" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B47" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C47" s="56"/>
-      <c r="D47" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="8"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
-        <v>225</v>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="30">
+      <c r="J47" s="8"/>
+      <c r="K47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" s="9" customFormat="1" ht="45">
       <c r="A48" s="7" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B48" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="8" t="s">
-        <v>150</v>
+      <c r="D48" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>211</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" ht="60">
+      <c r="K48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" s="9" customFormat="1" ht="30">
       <c r="A49" s="7" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B49" s="37">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C49" s="56"/>
-      <c r="D49" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" s="9" customFormat="1" ht="60">
       <c r="A50" s="7" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="B50" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
-      <c r="E50" s="8" t="s">
-        <v>143</v>
+      <c r="E50" s="61" t="s">
+        <v>307</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1">
+      <c r="K50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" s="9" customFormat="1" ht="45">
       <c r="A51" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="B51" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="8"/>
+      <c r="D51" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" s="56"/>
       <c r="F51" s="8" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" ht="45">
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" s="9" customFormat="1">
       <c r="A52" s="7" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B52" s="37">
         <f t="shared" si="3"/>
@@ -3007,521 +3191,547 @@
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="G52" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A53" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="16">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" s="9" customFormat="1" ht="45">
+      <c r="A53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="20" t="s">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" s="3" customFormat="1" ht="45">
+      <c r="A54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21" t="s">
+      <c r="G54" s="21"/>
+      <c r="H54" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A54" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="16">
-        <f>RIGHT(A54,4)-2134</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1" ht="45">
       <c r="A55" s="23" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="B55" s="16">
-        <f>RIGHT(A55,4)-2134</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="F55" s="21"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" s="20"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
-      <c r="J55" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="J55" s="21"/>
       <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="60">
-      <c r="A56" s="19" t="s">
-        <v>88</v>
+      <c r="L55" s="21"/>
+    </row>
+    <row r="56" spans="1:12" s="3" customFormat="1" ht="45">
+      <c r="A56" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="B56" s="16">
         <f>RIGHT(A56,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="C56" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A57" s="19" t="s">
-        <v>192</v>
+      <c r="L56" s="21"/>
+    </row>
+    <row r="57" spans="1:12" s="3" customFormat="1" ht="30">
+      <c r="A57" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="B57" s="16">
         <f>RIGHT(A57,4)-2134</f>
-        <v>2</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A58" s="23" t="s">
-        <v>96</v>
+      <c r="K57" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1" ht="60">
+      <c r="A58" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="B58" s="16">
-        <f t="shared" ref="B58:B112" si="4">RIGHT(A58,4)-2134</f>
-        <v>2</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21" t="s">
-        <v>97</v>
+        <f>RIGHT(A58,4)-2134</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" ht="60">
-      <c r="A59" s="23" t="s">
-        <v>41</v>
+      <c r="L58" s="21"/>
+    </row>
+    <row r="59" spans="1:12" s="3" customFormat="1" ht="30">
+      <c r="A59" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="B59" s="16">
-        <f t="shared" si="4"/>
+        <f>RIGHT(A59,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="30">
+      <c r="C59" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+    </row>
+    <row r="60" spans="1:12" s="3" customFormat="1" ht="30">
       <c r="A60" s="23" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="B60" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="B60:B115" si="4">RIGHT(A60,4)-2134</f>
+        <v>2</v>
       </c>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="16" t="s">
-        <v>83</v>
+      <c r="E60" s="57"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" ht="60">
+      <c r="A61" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="B61" s="16">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="18"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" ht="75">
-      <c r="A62" s="16" t="s">
-        <v>27</v>
+      <c r="L61" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30">
+      <c r="A62" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="B62" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="17"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" ht="45">
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="16" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B63" s="16">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
-      <c r="E63" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="17"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="45">
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" ht="75">
       <c r="A64" s="16" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" s="17"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="18"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="H64" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
-    </row>
-    <row r="65" spans="1:11" ht="45">
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" ht="45">
       <c r="A65" s="16" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B65" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
-      <c r="E65" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" s="17"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="I65" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" ht="60">
+      <c r="L65" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="16" t="s">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="B66" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C66" s="49"/>
       <c r="D66" s="49"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="E66" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="60">
-      <c r="A67" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-    </row>
-    <row r="68" spans="1:11" ht="30">
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" ht="45">
+      <c r="A67" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" ht="60">
       <c r="A68" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B68" s="16">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" ht="120">
-      <c r="A69" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="16">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="1:11" ht="30">
+      <c r="L68" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="60">
+      <c r="A69" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+    </row>
+    <row r="70" spans="1:12" ht="30">
       <c r="A70" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B70" s="16">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" s="49"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="17"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="60">
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" ht="120">
       <c r="A71" s="16" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B71" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="17"/>
+      <c r="E71" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30">
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" ht="30">
       <c r="A72" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B72" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="49"/>
-      <c r="E72" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="D72" s="54"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="1:11" ht="45">
+      <c r="L72" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="60">
       <c r="A73" s="16" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B73" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>268</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C73" s="49"/>
       <c r="D73" s="49"/>
-      <c r="E73" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="17"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="30">
       <c r="A74" s="16" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="B74" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="C74" s="49"/>
+      <c r="D74" s="54"/>
+      <c r="F74" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="H74" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" ht="45">
       <c r="A75" s="16" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B75" s="16">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C75" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
-    </row>
-    <row r="76" spans="1:11" ht="30">
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="16" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="B76" s="16">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="17"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49" t="s">
+        <v>296</v>
+      </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="45">
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B77" s="16">
         <f t="shared" si="4"/>
@@ -3529,21 +3739,20 @@
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="17"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="H77" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" ht="30">
       <c r="A78" s="16" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B78" s="16">
         <f t="shared" si="4"/>
@@ -3551,41 +3760,43 @@
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="1:11" ht="60">
+      <c r="L78" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45">
       <c r="A79" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B79" s="16">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C79" s="49" t="s">
-        <v>269</v>
-      </c>
+      <c r="C79" s="49"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="17"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G79" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
-    </row>
-    <row r="80" spans="1:11" ht="90">
+      <c r="L79" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B80" s="16">
         <f t="shared" si="4"/>
@@ -3593,39 +3804,43 @@
       </c>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="17" t="s">
-        <v>79</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
-    </row>
-    <row r="81" spans="1:11" ht="30">
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" ht="60">
       <c r="A81" s="16" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="B81" s="16">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C81" s="49"/>
+      <c r="C81" s="49" t="s">
+        <v>269</v>
+      </c>
       <c r="D81" s="49"/>
-      <c r="E81" s="17" t="s">
-        <v>307</v>
-      </c>
+      <c r="E81" s="49"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
-    </row>
-    <row r="82" spans="1:11" ht="45">
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" ht="90">
       <c r="A82" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B82" s="16">
         <f t="shared" si="4"/>
@@ -3633,20 +3848,21 @@
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="J82" s="17"/>
-      <c r="K82" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30">
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" ht="30">
       <c r="A83" s="16" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="B83" s="16">
         <f t="shared" si="4"/>
@@ -3654,19 +3870,19 @@
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E83" s="49"/>
+      <c r="F83" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
-    </row>
-    <row r="84" spans="1:11" ht="30">
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" ht="45">
       <c r="A84" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B84" s="16">
         <f t="shared" si="4"/>
@@ -3674,61 +3890,63 @@
       </c>
       <c r="C84" s="49"/>
       <c r="D84" s="49"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
-    </row>
-    <row r="85" spans="1:11" ht="45">
+      <c r="L84" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B85" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="49"/>
       <c r="D85" s="49"/>
-      <c r="E85" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="E85" s="49"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
+      <c r="H85" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
-    </row>
-    <row r="86" spans="1:11" ht="45">
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:12" ht="30">
       <c r="A86" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B86" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="49"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="45">
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:12" ht="45">
       <c r="A87" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="16">
         <f t="shared" si="4"/>
@@ -3736,19 +3954,20 @@
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
-      <c r="E87" s="17"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="17" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
-    </row>
-    <row r="88" spans="1:11" ht="30">
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" ht="45">
       <c r="A88" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B88" s="16">
         <f t="shared" si="4"/>
@@ -3756,19 +3975,22 @@
       </c>
       <c r="C88" s="49"/>
       <c r="D88" s="49"/>
-      <c r="E88" s="17"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
-    </row>
-    <row r="89" spans="1:11" ht="60">
+      <c r="L88" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="45">
       <c r="A89" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B89" s="16">
         <f t="shared" si="4"/>
@@ -3776,21 +3998,20 @@
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="49"/>
-      <c r="E89" s="17"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="60">
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B90" s="16">
         <f t="shared" si="4"/>
@@ -3798,21 +4019,20 @@
       </c>
       <c r="C90" s="49"/>
       <c r="D90" s="49"/>
-      <c r="E90" s="17"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="45">
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" ht="60">
       <c r="A91" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B91" s="16">
         <f t="shared" si="4"/>
@@ -3820,23 +4040,22 @@
       </c>
       <c r="C91" s="49"/>
       <c r="D91" s="49"/>
-      <c r="E91" s="17" t="s">
-        <v>132</v>
-      </c>
+      <c r="E91" s="49"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="60">
+      <c r="K91" s="17"/>
+      <c r="L91" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="60">
       <c r="A92" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B92" s="16">
         <f t="shared" si="4"/>
@@ -3844,21 +4063,22 @@
       </c>
       <c r="C92" s="49"/>
       <c r="D92" s="49"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H92" s="17"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
-    </row>
-    <row r="93" spans="1:11" ht="60">
+      <c r="L92" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="45">
       <c r="A93" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B93" s="16">
         <f t="shared" si="4"/>
@@ -3866,25 +4086,24 @@
       </c>
       <c r="C93" s="49"/>
       <c r="D93" s="49"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17" t="s">
-        <v>68</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I93" s="17"/>
       <c r="J93" s="17"/>
-      <c r="K93" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="120">
+      <c r="K93" s="17"/>
+      <c r="L93" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="60">
       <c r="A94" s="16" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B94" s="16">
         <f t="shared" si="4"/>
@@ -3892,67 +4111,74 @@
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
-      <c r="E94" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>37</v>
-      </c>
+      <c r="E94" s="49"/>
+      <c r="F94" s="17"/>
       <c r="G94" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
-    </row>
-    <row r="95" spans="1:11" ht="60">
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" ht="60">
       <c r="A95" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B95" s="16">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
-      <c r="E95" s="17"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H95" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45">
+      <c r="J95" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="120">
       <c r="A96" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B96" s="16">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="G96" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H96" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
-      <c r="K96" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="105">
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" ht="60">
       <c r="A97" s="16" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B97" s="16">
         <f t="shared" si="4"/>
@@ -3960,21 +4186,22 @@
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H97" s="17"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-    </row>
-    <row r="98" spans="1:11" ht="45">
+      <c r="L97" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="45">
       <c r="A98" s="16" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B98" s="16">
         <f t="shared" si="4"/>
@@ -3982,21 +4209,22 @@
       </c>
       <c r="C98" s="49"/>
       <c r="D98" s="49"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H98" s="17"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
-    </row>
-    <row r="99" spans="1:11" ht="30">
+      <c r="L98" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="105">
       <c r="A99" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B99" s="16">
         <f t="shared" si="4"/>
@@ -4004,19 +4232,24 @@
       </c>
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
-    </row>
-    <row r="100" spans="1:11" ht="60">
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" ht="45">
       <c r="A100" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" s="16">
         <f t="shared" si="4"/>
@@ -4024,19 +4257,22 @@
       </c>
       <c r="C100" s="49"/>
       <c r="D100" s="49"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30">
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" ht="30">
       <c r="A101" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="16">
         <f t="shared" si="4"/>
@@ -4044,19 +4280,20 @@
       </c>
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" s="17"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
-    </row>
-    <row r="102" spans="1:11" ht="60">
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" ht="60">
       <c r="A102" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B102" s="16">
         <f t="shared" si="4"/>
@@ -4064,19 +4301,20 @@
       </c>
       <c r="C102" s="49"/>
       <c r="D102" s="49"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G102" s="17"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="8"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
-    </row>
-    <row r="103" spans="1:11" ht="60">
+      <c r="L102" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="30">
       <c r="A103" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B103" s="16">
         <f t="shared" si="4"/>
@@ -4084,201 +4322,284 @@
       </c>
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
-      <c r="E103" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" s="17"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="45">
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" ht="60">
       <c r="A104" s="16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B104" s="16">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="49"/>
       <c r="D104" s="49"/>
-      <c r="E104" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="E104" s="49"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
+      <c r="G104" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
-      <c r="K104" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="45">
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" ht="60">
       <c r="A105" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B105" s="16">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17" t="s">
-        <v>147</v>
+      <c r="E105" s="49"/>
+      <c r="F105" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
-      <c r="K105" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="75">
+      <c r="K105" s="17"/>
+      <c r="L105" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="45">
       <c r="A106" s="16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B106" s="16">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>194</v>
-      </c>
+      <c r="C106" s="49"/>
       <c r="D106" s="49"/>
-      <c r="E106" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F106" s="17"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="60">
+      <c r="K106" s="17"/>
+      <c r="L106" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="45">
       <c r="A107" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B107" s="16">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C107" s="49"/>
-      <c r="D107" s="49" t="s">
-        <v>289</v>
-      </c>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
+      <c r="H107" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
-      <c r="K107" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="60">
+      <c r="K107" s="17"/>
+      <c r="L107" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="75">
       <c r="A108" s="16" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="B108" s="16">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="F108" s="17"/>
+      <c r="C108" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
-    </row>
-    <row r="109" spans="1:11" ht="45">
+      <c r="L108" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="45">
       <c r="A109" s="16" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B109" s="16">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C109" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="49"/>
-      <c r="F109" s="17"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109" s="49"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
-    </row>
-    <row r="110" spans="1:11" ht="60">
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" ht="90">
       <c r="A110" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B110" s="16">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>146</v>
+      <c r="D110" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>289</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-    </row>
-    <row r="111" spans="1:11" ht="30">
-      <c r="A111" s="25" t="s">
+      <c r="L110" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="60">
+      <c r="A111" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" ht="45">
+      <c r="A112" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E112" s="49"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" ht="60">
+      <c r="A113" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="16">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" ht="30">
+      <c r="A114" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B111" s="45">
+      <c r="B114" s="45">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C114" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D111" s="54"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33" t="s">
+      <c r="D114" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E114" s="54"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="K111" s="33"/>
-    </row>
-    <row r="112" spans="1:11" ht="30">
-      <c r="A112" s="2" t="s">
+      <c r="L114" s="33"/>
+    </row>
+    <row r="115" spans="1:12" ht="30">
+      <c r="A115" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B112" s="44">
+      <c r="B115" s="44">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C115" s="58" t="s">
         <v>285</v>
+      </c>
+      <c r="D115" s="58" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,28 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941FBEA4-8692-0046-AD27-4A81CC71E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -896,9 +913,6 @@
     <t>Kilimanjaron avaruushissi valmistuu</t>
   </si>
   <si>
-    <t>Uploadattujen mielten palautus prototyyppitasolla</t>
-  </si>
-  <si>
     <t>Ger∂r perustetaan.</t>
   </si>
   <si>
@@ -998,6 +1012,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lovers in Prayang</t>
@@ -1023,6 +1038,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Knight of Air and Water</t>
@@ -1183,6 +1199,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Offworld CE</t>
@@ -1218,12 +1235,21 @@
   <si>
     <t>Yunus Bankin värväämä nelikko saapuu FA:lle työnjohtajiksi</t>
   </si>
+  <si>
+    <t>Tenneh Ganda (Yunus Bank) syntyy</t>
+  </si>
+  <si>
+    <t>Tenneh Gandan yksi forkeista häipyy hisssityömaaltaa ja liittyy protoasteella olevaan Barsoomin liikkeeseen.</t>
+  </si>
+  <si>
+    <t>Uploadattujen mielten palautus biologisiin kehoihin prototyyppitasolla</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1302,11 +1328,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,13 +1521,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1527,34 +1554,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1573,75 +1578,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1736,6 +1698,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1996,2610 +1961,2582 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="30" customWidth="1"/>
-    <col min="3" max="4" width="26.83203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="4" width="26.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
     <col min="6" max="12" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="29">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="37">
+      <c r="A1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="40">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="66">
+      <c r="A2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:12" ht="34">
+      <c r="A3" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="21">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
         <v>-60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A4" s="31" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="34">
+      <c r="A4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="21">
         <f t="shared" si="0"/>
         <v>-59</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="C4" s="16"/>
       <c r="E4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A5" s="31" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="34">
+      <c r="A5" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="21">
         <f t="shared" si="0"/>
         <v>-57</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A6" s="31" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="34">
+      <c r="A6" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1">
-      <c r="A7" s="31" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="34">
+      <c r="A7" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A8" s="31" t="s">
+      <c r="F7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="34">
+      <c r="A8" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="21">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="16"/>
+      <c r="E8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" ht="60">
-      <c r="A9" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="68">
+      <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="21">
         <f>A9-2134</f>
         <v>-47</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="28">
+    <row r="10" spans="1:12" ht="34">
+      <c r="A10" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="21">
         <f>A10-2134</f>
         <v>-45</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="16"/>
       <c r="F10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="34">
+      <c r="A11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="21">
         <f t="shared" ref="B11:B43" si="1">A11-2134</f>
         <v>-44</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="90">
-      <c r="A12" s="16" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="102">
+      <c r="A12" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="21">
         <f t="shared" si="1"/>
         <v>-43</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="16"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="I12" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="105">
-      <c r="A13" s="16" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="119">
+      <c r="A13" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="21">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="G13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="34">
+      <c r="A14" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="21">
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="85">
+      <c r="A15" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="75">
-      <c r="A15" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="60">
+      <c r="B15" s="34">
         <f t="shared" ref="B15" si="2">RIGHT(A15,4)-2134</f>
         <v>-39</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="16" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="51">
+      <c r="A16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="21">
         <f t="shared" si="1"/>
         <v>-38</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="75">
-      <c r="A17" s="16" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="85">
+      <c r="A17" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="21">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="16" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="17">
+      <c r="A18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="21">
         <f t="shared" si="1"/>
         <v>-34</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="16" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="34">
+      <c r="A19" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="21">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:12" ht="68">
+      <c r="A20" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="21">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="33" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="60">
-      <c r="A21" s="16" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="85">
+      <c r="A21" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="21">
         <f t="shared" si="1"/>
         <v>-29</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="45">
-      <c r="A22" s="16" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="51">
+      <c r="A22" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="21">
         <f t="shared" si="1"/>
         <v>-28</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="30">
-      <c r="A23" s="16" t="s">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="34">
+      <c r="A23" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="21">
         <f t="shared" si="1"/>
         <v>-27</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="28">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="34">
+      <c r="A24" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="21">
         <f t="shared" si="1"/>
         <v>-26</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="16" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="34">
+      <c r="A25" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="21">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="49"/>
-      <c r="G25" s="17" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="16" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="17">
+      <c r="A26" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="21">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" ht="30">
-      <c r="A27" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="51">
+      <c r="A27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="21">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="16"/>
+      <c r="E27" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
+      <c r="F27" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="16" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="34">
+      <c r="A28" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="21">
         <f t="shared" si="1"/>
         <v>-19</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" ht="90">
-      <c r="A29" s="16" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="102">
+      <c r="A29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="21">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="30">
-      <c r="A30" s="16" t="s">
+      <c r="I29" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="34">
+      <c r="A30" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="21">
         <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="G30" s="17" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="G30" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="30">
-      <c r="A31" s="16" t="s">
+      <c r="H30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="34">
+      <c r="A31" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="21">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="F31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="17">
+      <c r="A32" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="21">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" s="70" customFormat="1" ht="75">
-      <c r="A33" s="65" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" s="42" customFormat="1" ht="85">
+      <c r="A33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="39">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-    </row>
-    <row r="34" spans="1:12" ht="45">
-      <c r="A34" s="16" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="1:12" ht="51">
+      <c r="A34" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="21">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="16"/>
       <c r="F34" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:12" ht="34">
+      <c r="A35" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="21">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="16" t="s">
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="17">
+      <c r="A36" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="21">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="34" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="30">
-      <c r="A37" s="16" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="34">
+      <c r="A37" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="21">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="35" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="135">
-      <c r="A38" s="16" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="153">
+      <c r="A38" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="21">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="34" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="16" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="34">
+      <c r="A39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="21">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="49"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="21">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="49"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="60">
-      <c r="A41" s="16" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="68">
+      <c r="A41" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="21">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="30">
-      <c r="A42" s="16" t="s">
+      <c r="C41" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="34">
+      <c r="A42" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="21">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" s="6" customFormat="1">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="17">
+      <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="5">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="5" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="45">
-      <c r="A44" s="7" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" s="8" customFormat="1" ht="51">
+      <c r="A44" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="24">
         <f t="shared" ref="B44:B55" si="3">RIGHT(A44,4)-2134</f>
         <v>-2</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="8" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" s="9" customFormat="1" ht="45">
-      <c r="A45" s="7" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" s="8" customFormat="1" ht="51">
+      <c r="A45" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" s="9" customFormat="1" ht="75">
-      <c r="A46" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" s="37">
+      <c r="D45" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" s="8" customFormat="1" ht="85">
+      <c r="A46" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="56" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" s="9" customFormat="1" ht="60">
-      <c r="A47" s="7" t="s">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" s="8" customFormat="1" ht="68">
+      <c r="A47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" s="9" customFormat="1" ht="45">
-      <c r="A48" s="7" t="s">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" s="8" customFormat="1" ht="68">
+      <c r="A48" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="E48" s="56" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8" t="s">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" s="9" customFormat="1" ht="30">
-      <c r="A49" s="7" t="s">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" s="8" customFormat="1" ht="34">
+      <c r="A49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="8" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:12" s="9" customFormat="1" ht="60">
-      <c r="A50" s="7" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" s="8" customFormat="1" ht="68">
+      <c r="A50" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8" t="s">
+      <c r="J50" s="7"/>
+      <c r="K50" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" s="9" customFormat="1" ht="45">
-      <c r="A51" s="7" t="s">
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" s="8" customFormat="1" ht="51">
+      <c r="A51" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="8" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I51" s="8" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" s="9" customFormat="1">
-      <c r="A52" s="7" t="s">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" s="8" customFormat="1" ht="17">
+      <c r="A52" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" s="9" customFormat="1" ht="45">
-      <c r="A53" s="7" t="s">
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" s="8" customFormat="1" ht="51">
+      <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A54" s="23" t="s">
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" ht="51">
+      <c r="A54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="20" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-    </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A55" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B55" s="16">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" ht="51">
+      <c r="A55" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-    </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" ht="45">
-      <c r="A56" s="23" t="s">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:12" ht="51">
+      <c r="A56" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <f>RIGHT(A56,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-    </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" ht="30">
-      <c r="A57" s="23" t="s">
+      <c r="D56" s="23"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="1:12" ht="34">
+      <c r="A57" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <f>RIGHT(A57,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="L57" s="21"/>
-    </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" ht="60">
-      <c r="A58" s="19" t="s">
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="1:12" ht="68">
+      <c r="A58" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <f>RIGHT(A58,4)-2134</f>
         <v>1</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="8" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-    </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" ht="30">
-      <c r="A59" s="19" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" spans="1:12" ht="34">
+      <c r="A59" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <f>RIGHT(A59,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-    </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" ht="30">
-      <c r="A60" s="23" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+    </row>
+    <row r="60" spans="1:12" ht="34">
+      <c r="A60" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <f t="shared" ref="B60:B115" si="4">RIGHT(A60,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21" t="s">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-    </row>
-    <row r="61" spans="1:12" ht="60">
-      <c r="A61" s="23" t="s">
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="1:12" ht="68">
+      <c r="A61" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="34">
+      <c r="A62" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+    </row>
+    <row r="63" spans="1:12" ht="17">
+      <c r="A63" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" ht="85">
+      <c r="A64" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="E64" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="1:12" ht="51">
+      <c r="A65" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="51">
+      <c r="A66" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="1:12" ht="68">
+      <c r="A67" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+    </row>
+    <row r="68" spans="1:12" ht="68">
+      <c r="A68" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="68">
+      <c r="A69" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+    </row>
+    <row r="70" spans="1:12" ht="34">
+      <c r="A70" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:12" ht="136">
+      <c r="A71" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:12" ht="34">
+      <c r="A72" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="68">
+      <c r="A73" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="34">
+      <c r="A74" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="F74" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="1:12" ht="51">
+      <c r="A75" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+    </row>
+    <row r="76" spans="1:12" ht="17">
+      <c r="A76" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="1:12" ht="17">
+      <c r="A77" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+    </row>
+    <row r="78" spans="1:12" ht="34">
+      <c r="A78" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="51">
+      <c r="A79" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="17">
+      <c r="A80" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+    </row>
+    <row r="81" spans="1:12" ht="85">
+      <c r="A81" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+    </row>
+    <row r="82" spans="1:12" ht="102">
+      <c r="A82" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+    </row>
+    <row r="83" spans="1:12" ht="34">
+      <c r="A83" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+    </row>
+    <row r="84" spans="1:12" ht="51">
+      <c r="A84" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="34">
+      <c r="A85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+    </row>
+    <row r="86" spans="1:12" ht="34">
+      <c r="A86" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+    </row>
+    <row r="87" spans="1:12" ht="51">
+      <c r="A87" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="1:12" ht="51">
+      <c r="A88" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="68">
+      <c r="A89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+    </row>
+    <row r="90" spans="1:12" ht="34">
+      <c r="A90" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="1:12" ht="68">
+      <c r="A91" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="68">
+      <c r="A92" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="51">
+      <c r="A93" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="68">
+      <c r="A94" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+    </row>
+    <row r="95" spans="1:12" ht="68">
+      <c r="A95" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="153">
+      <c r="A96" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+    </row>
+    <row r="97" spans="1:12" ht="68">
+      <c r="A97" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="51">
+      <c r="A98" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="119">
+      <c r="A99" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+    </row>
+    <row r="100" spans="1:12" ht="51">
+      <c r="A100" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="1:12" ht="34">
+      <c r="A101" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+    </row>
+    <row r="102" spans="1:12" ht="68">
+      <c r="A102" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="34">
+      <c r="A103" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+    </row>
+    <row r="104" spans="1:12" ht="68">
+      <c r="A104" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+    </row>
+    <row r="105" spans="1:12" ht="68">
+      <c r="A105" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="51">
+      <c r="A106" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="51">
+      <c r="A107" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="85">
+      <c r="A108" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="51">
+      <c r="A109" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+    </row>
+    <row r="110" spans="1:12" ht="102">
+      <c r="A110" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="30">
-      <c r="A62" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" ht="75">
-      <c r="A64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" ht="45">
-      <c r="A65" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="16">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="45">
-      <c r="A66" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B66" s="16">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" ht="45">
-      <c r="A67" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="16">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="60">
-      <c r="A68" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="16">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="60">
-      <c r="A69" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-    </row>
-    <row r="70" spans="1:12" ht="30">
-      <c r="A70" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="16">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" ht="120">
-      <c r="A71" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="16">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" ht="30">
-      <c r="A72" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="16">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="54"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="60">
-      <c r="A73" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="16">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="30">
-      <c r="A74" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="16">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="54"/>
-      <c r="F74" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" ht="45">
-      <c r="A75" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B76" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="45">
-      <c r="A79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" ht="60">
-      <c r="A81" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C81" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" ht="90">
-      <c r="A82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" ht="30">
-      <c r="A83" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B83" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" ht="45">
-      <c r="A84" s="16" t="s">
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="68">
+      <c r="A111" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" s="15">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B84" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="30">
-      <c r="A85" s="16" t="s">
+      <c r="C111" s="16"/>
+      <c r="D111" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+    </row>
+    <row r="112" spans="1:12" ht="51">
+      <c r="A112" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+    </row>
+    <row r="113" spans="1:12" ht="68">
+      <c r="A113" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="15">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B85" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" ht="30">
-      <c r="A86" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" ht="45">
-      <c r="A87" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" ht="45">
-      <c r="A88" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="45">
-      <c r="A89" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" ht="30">
-      <c r="A90" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" ht="60">
-      <c r="A91" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="60">
-      <c r="A92" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="45">
-      <c r="A93" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="60">
-      <c r="A94" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" ht="60">
-      <c r="A95" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="120">
-      <c r="A96" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="16">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" ht="60">
-      <c r="A97" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="45">
-      <c r="A98" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B98" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="105">
-      <c r="A99" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" ht="45">
-      <c r="A100" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" ht="30">
-      <c r="A101" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" ht="60">
-      <c r="A102" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="30">
-      <c r="A103" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" ht="60">
-      <c r="A104" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" ht="60">
-      <c r="A105" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B105" s="16">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="45">
-      <c r="A106" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="45">
-      <c r="A107" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="75">
-      <c r="A108" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="45">
-      <c r="A109" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="E109" s="49"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" ht="90">
-      <c r="A110" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="E110" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="60">
-      <c r="A111" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B111" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" ht="45">
-      <c r="A112" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B112" s="16">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="D112" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="E112" s="49"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="60">
-      <c r="A113" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="16">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+    </row>
+    <row r="114" spans="1:12" ht="34">
+      <c r="A114" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G113" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" ht="30">
-      <c r="A114" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B114" s="45">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="E114" s="54"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33" t="s">
+      <c r="C114" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L114" s="33"/>
-    </row>
-    <row r="115" spans="1:12" ht="30">
+    </row>
+    <row r="115" spans="1:12" ht="51">
       <c r="A115" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="44">
+      <c r="B115" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C115" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="58" t="s">
-        <v>334</v>
+      <c r="C115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941FBEA4-8692-0046-AD27-4A81CC71E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70079F73-5912-E041-B7BE-E9AAE8D4066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">Koneälyt vahingoittavat Saint Paulaa. </t>
-  </si>
-  <si>
-    <t>9/2143</t>
   </si>
   <si>
     <t>Anne-Marie Meredith menehtyy; Diafotismos ottaa hänen mielensä talteen</t>
@@ -533,9 +530,6 @@
   </si>
   <si>
     <t>2119</t>
-  </si>
-  <si>
-    <t>Nittaya saa mesh implantin</t>
   </si>
   <si>
     <t>2074</t>
@@ -1004,6 +998,208 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Ma'adim Valisin tähtiportti löytyy. Fajar Setiawanin ensimmäinen isompi XP-rooli </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knight of Air and Water</t>
+    </r>
+  </si>
+  <si>
+    <t>Lunar skyhook rakennetaan</t>
+  </si>
+  <si>
+    <t>Selene Station valmistuu.</t>
+  </si>
+  <si>
+    <t>Lunan skyhookista tulee oikea kiertoratahissi.</t>
+  </si>
+  <si>
+    <t>New Nectarin rakentaminen alkaa</t>
+  </si>
+  <si>
+    <t>2/2143</t>
+  </si>
+  <si>
+    <t>New Nectar valmistuu</t>
+  </si>
+  <si>
+    <t>Elysium perustetaan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 minuutin sota: JOTO muuttuu Jupiterin tasavallaksi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jupiterin tasavallan kansallispäivä.</t>
+    </r>
+  </si>
+  <si>
+    <t>Marsin terraformauksen katsotaan alkavan.</t>
+  </si>
+  <si>
+    <t>18/4/2095</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tharsis-liitto perustetaan kaupunkien yhteistyökomiteaksi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tharsis-liiton kansallispäivä</t>
+    </r>
+  </si>
+  <si>
+    <t>19.12. 2116 Plurality perustetaan - Titanin kansanyhteisön kansallispäivä.</t>
+  </si>
+  <si>
+    <t>11/2139</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan ensimmäistä kertaa LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>11/2143</t>
+  </si>
+  <si>
+    <t>Avra Don valitaan toisen kerran LLA:n presidentiksi</t>
+  </si>
+  <si>
+    <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
+  </si>
+  <si>
+    <t>Curupira valmistuu. Asteroidi 2094-FA saapuu Marsin korkealle kiertoradalle.</t>
+  </si>
+  <si>
+    <t>12/2146</t>
+  </si>
+  <si>
+    <t>Mi-sook Ho'n viimeinen varmuuskopio Khlun Luk Himissä (27.12.)</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>Madison Bell syntyy Hellas Plaintiassa</t>
+  </si>
+  <si>
+    <t>Little Shanghain kupolin rakentaminen alkaa</t>
+  </si>
+  <si>
+    <t>Little Shanghai otetaan käyttöön ja pakolaiset siirretään sinne.</t>
+  </si>
+  <si>
+    <t>1/2135</t>
+  </si>
+  <si>
+    <t>TX Wangin viimeinen varmuuskopio</t>
+  </si>
+  <si>
+    <t>Morningstar Constellation eroaa PC:stä.</t>
+  </si>
+  <si>
+    <t>Cale Ortega syntyy</t>
+  </si>
+  <si>
+    <t>Cale Ortega pidätetään</t>
+  </si>
+  <si>
+    <t>[HAUNTING MARS] Fukumitsu Aya</t>
+  </si>
+  <si>
+    <t>FA-2094 löydetään</t>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos aloittaa toimintansa kiertoradan stabiloiduttua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FA-2094 hinataan Marsin kiertoradalle. Asteroidin omistajaksi päätyy </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Offworld CE</t>
+    </r>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos hylätään. 17 työntekijästä 11 pakenee, loput joutuvat OCE:n koneälyn surmaamiksi ja assimiloimiksi.</t>
+  </si>
+  <si>
+    <t>07/2146</t>
+  </si>
+  <si>
+    <t>Solariksen rahastonhallinnan asiantuntijajärjestelmä perustaa Licorne de l'Ouestin</t>
+  </si>
+  <si>
+    <t>Kontraktorit tarkistavat Fukumitsu Ayan, toteavat sen enimmäkseen ehjäksi, ja uudelleenaktivoivat egocasterin sekä fuusioreaktorin.</t>
+  </si>
+  <si>
+    <t>Fukumitsu Ayan kaivos uudelleenaktivoidaan.</t>
+  </si>
+  <si>
+    <t>OCE:n järjestelmä aktivoituu FA:n syvyydessä.</t>
+  </si>
+  <si>
+    <t>Exsurgent-virus nujertaa koneälyn, joka on pesiytynyt FA:n järjestelmään</t>
+  </si>
+  <si>
+    <t>OCE:n järjestelmän energia loppuu ja se vajoaa unitilaan</t>
+  </si>
+  <si>
+    <t>Forinda Grigor ja Shyam Anikki tulevat OCE:n kaappaamaksi</t>
+  </si>
+  <si>
+    <t>Yunus Bankin värväämä nelikko saapuu FA:lle työnjohtajiksi</t>
+  </si>
+  <si>
+    <t>Tenneh Ganda (Yunus Bank) syntyy</t>
+  </si>
+  <si>
+    <t>Tenneh Gandan yksi forkeista häipyy hisssityömaaltaa ja liittyy protoasteella olevaan Barsoomin liikkeeseen.</t>
+  </si>
+  <si>
+    <t>Uploadattujen mielten palautus biologisiin kehoihin prototyyppitasolla</t>
+  </si>
+  <si>
+    <t>Empower &amp; Connect XI -messsut Elysium Cityssä</t>
+  </si>
+  <si>
+    <t>04/2147</t>
+  </si>
+  <si>
+    <t>09/2146</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Fajar Setiawanin tähdittämä </t>
     </r>
     <r>
@@ -1025,110 +1221,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -spektaakkeli julkaistaan</t>
+      <t xml:space="preserve"> -spektaakkeli julkaistaan.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ma'adim Valisin tähtiportti löytyy. Fajar Setiawanin ensimmäinen isompi XP-rooli </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Knight of Air and Water</t>
-    </r>
-  </si>
-  <si>
-    <t>Lunar skyhook rakennetaan</t>
-  </si>
-  <si>
-    <t>Selene Station valmistuu.</t>
-  </si>
-  <si>
-    <t>Lunan skyhookista tulee oikea kiertoratahissi.</t>
-  </si>
-  <si>
-    <t>New Nectarin rakentaminen alkaa</t>
-  </si>
-  <si>
-    <t>2/2143</t>
-  </si>
-  <si>
-    <t>New Nectar valmistuu</t>
-  </si>
-  <si>
-    <t>Elysium perustetaan.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17 minuutin sota: JOTO muuttuu Jupiterin tasavallaksi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jupiterin tasavallan kansallispäivä.</t>
-    </r>
-  </si>
-  <si>
-    <t>Marsin terraformauksen katsotaan alkavan.</t>
-  </si>
-  <si>
-    <t>18/4/2095</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tharsis-liitto perustetaan kaupunkien yhteistyökomiteaksi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tharsis-liiton kansallispäivä</t>
-    </r>
-  </si>
-  <si>
-    <t>19.12. 2116 Plurality perustetaan - Titanin kansanyhteisön kansallispäivä.</t>
-  </si>
-  <si>
-    <t>11/2139</t>
-  </si>
-  <si>
-    <t>Avra Don valitaan ensimmäistä kertaa LLA:n presidentiksi</t>
-  </si>
-  <si>
-    <t>11/2143</t>
-  </si>
-  <si>
-    <t>Avra Don valitaan toisen kerran LLA:n presidentiksi</t>
-  </si>
-  <si>
-    <t>Planetary Consortiumin perustusyhtiöt erkanevat LLA:sta ja siirtyvät Marsiin</t>
-  </si>
-  <si>
-    <t>Curupira valmistuu. Asteroidi 2094-FA saapuu Marsin korkealle kiertoradalle.</t>
-  </si>
-  <si>
-    <t>12/2146</t>
-  </si>
-  <si>
-    <t>Mi-sook Ho'n viimeinen varmuuskopio Khlun Luk Himissä (27.12.)</t>
+    <t>TX Wang ja Fishface surmaavat vahingossa Ionic Oacaxa-Maartensin ja varastavat tämän kuorinipun.</t>
+  </si>
+  <si>
+    <t>Fajar Setiawan (II) aloittaa uran LLA:ssa.</t>
+  </si>
+  <si>
+    <t>26/4/2134</t>
+  </si>
+  <si>
+    <t>Fall Day: YK:n rippeet Lunassa toteavat Maan menetetyksi</t>
+  </si>
+  <si>
+    <t>Tulitauko Kreikkalaisten sodassa alkaa</t>
+  </si>
+  <si>
+    <t>Neuvottelut Kreikkalaisten sodan tulitauon muuttamisesta välirauhaksi alkavat</t>
+  </si>
+  <si>
+    <t>Well of Talent perustetaan</t>
+  </si>
+  <si>
+    <t>10/2134</t>
+  </si>
+  <si>
+    <t>CE (ml. OCE) lakkaavat olemasta, ja Fa Jing absorboi kaikki löytyvät assetit. Paljon putoaa raoista, mm. valtaosa OCE:n omaisuudesta.</t>
+  </si>
+  <si>
+    <t>Chelsea Bell on mukana yrityksessä räjäyttää Fa Jingin automaattitehdas. Yritys epäonnistuu ja Chelsea pidätetään</t>
+  </si>
+  <si>
+    <t>Oikeusjutut romautttavat Durangon talouden ja Fa Jing nielee sen</t>
+  </si>
+  <si>
+    <t>Madison Bell pidätetään ja hän menettää morfinsa</t>
+  </si>
+  <si>
+    <t>TX:n bändi #1 perustetaan</t>
   </si>
   <si>
     <r>
@@ -1150,99 +1283,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Selene Stationin rakentaminen skyhookin päähän alkaa. TX Wang syntyy Hong Kongissa.</t>
+      <t xml:space="preserve"> Selene Stationin rakentaminen skyhookin päähän alkaa.</t>
     </r>
   </si>
   <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>Madison Bell syntyy Hellas Plaintiassa</t>
-  </si>
-  <si>
-    <t>Little Shanghain kupolin rakentaminen alkaa</t>
-  </si>
-  <si>
-    <t>Little Shanghai otetaan käyttöön ja pakolaiset siirretään sinne.</t>
-  </si>
-  <si>
-    <t>1/2135</t>
-  </si>
-  <si>
-    <t>TX Wangin viimeinen varmuuskopio</t>
-  </si>
-  <si>
-    <t>Morningstar Constellation eroaa PC:stä.</t>
-  </si>
-  <si>
-    <t>Cale Ortega syntyy</t>
-  </si>
-  <si>
-    <t>Cale Ortega pidätetään</t>
-  </si>
-  <si>
-    <t>[HAUNTING MARS] Fukumitsu Aya</t>
-  </si>
-  <si>
-    <t>FA-2094 löydetään</t>
-  </si>
-  <si>
-    <t>Fukumitsu Ayan kaivos aloittaa toimintansa kiertoradan stabiloiduttua</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FA-2094 hinataan Marsin kiertoradalle. Asteroidin omistajaksi päätyy </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Offworld CE</t>
-    </r>
-  </si>
-  <si>
-    <t>Fukumitsu Ayan kaivos hylätään. 17 työntekijästä 11 pakenee, loput joutuvat OCE:n koneälyn surmaamiksi ja assimiloimiksi.</t>
-  </si>
-  <si>
-    <t>07/2146</t>
-  </si>
-  <si>
-    <t>Solariksen rahastonhallinnan asiantuntijajärjestelmä perustaa Licorne de l'Ouestin</t>
-  </si>
-  <si>
-    <t>Kontraktorit tarkistavat Fukumitsu Ayan, toteavat sen enimmäkseen ehjäksi, ja uudelleenaktivoivat egocasterin sekä fuusioreaktorin.</t>
-  </si>
-  <si>
-    <t>Fukumitsu Ayan kaivos uudelleenaktivoidaan.</t>
-  </si>
-  <si>
-    <t>OCE:n järjestelmä aktivoituu FA:n syvyydessä.</t>
-  </si>
-  <si>
-    <t>Exsurgent-virus nujertaa koneälyn, joka on pesiytynyt FA:n järjestelmään</t>
-  </si>
-  <si>
-    <t>OCE:n järjestelmän energia loppuu ja se vajoaa unitilaan</t>
-  </si>
-  <si>
-    <t>Forinda Grigor ja Shyam Anikki tulevat OCE:n kaappaamaksi</t>
-  </si>
-  <si>
-    <t>Yunus Bankin värväämä nelikko saapuu FA:lle työnjohtajiksi</t>
-  </si>
-  <si>
-    <t>Tenneh Ganda (Yunus Bank) syntyy</t>
-  </si>
-  <si>
-    <t>Tenneh Gandan yksi forkeista häipyy hisssityömaaltaa ja liittyy protoasteella olevaan Barsoomin liikkeeseen.</t>
-  </si>
-  <si>
-    <t>Uploadattujen mielten palautus biologisiin kehoihin prototyyppitasolla</t>
+    <t xml:space="preserve"> TX Wang syntyy Hong Kongissa.</t>
+  </si>
+  <si>
+    <t>01/2140</t>
+  </si>
+  <si>
+    <t>Bändi #1 alkaa saada underground-piireissä huomiota</t>
+  </si>
+  <si>
+    <t>TX Wang muuttaa Elysium Cityyn</t>
+  </si>
+  <si>
+    <t>07/2142</t>
+  </si>
+  <si>
+    <t>09/2143</t>
+  </si>
+  <si>
+    <t>08/2143</t>
+  </si>
+  <si>
+    <t>Bändi #1 saa levytysdiilin. Barsoomin liike värvää TX:n.</t>
+  </si>
+  <si>
+    <t>Bändi #1 breikkaa ja hajoaa. Bändi #2 perustetaan, Mutant Records ottaa tämän talliinsa.</t>
+  </si>
+  <si>
+    <t>TX muuttaa uuteen asuntoon Chinatownissa</t>
+  </si>
+  <si>
+    <t>Well of Talent uusii Pajayn henkilöstörakenteen</t>
+  </si>
+  <si>
+    <t>Nittaya saa mesh implantin ja muusan</t>
+  </si>
+  <si>
+    <t>5/2134</t>
+  </si>
+  <si>
+    <t>Tharsis-liitto julistautuu itseenäiseksi valtioksi</t>
   </si>
 </sst>
 </file>
@@ -1592,9 +1676,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1607,6 +1688,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1969,13 +2053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1989,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1" ht="37">
       <c r="A1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="32"/>
@@ -2005,19 +2089,19 @@
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="66">
       <c r="A2" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>2</v>
@@ -2038,12 +2122,12 @@
         <v>5</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34">
       <c r="A3" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="21">
         <f t="shared" ref="B3:B8" si="0">A3-2134</f>
@@ -2052,10 +2136,10 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2066,7 +2150,7 @@
     </row>
     <row r="4" spans="1:12" ht="34">
       <c r="A4" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="21">
         <f t="shared" si="0"/>
@@ -2074,10 +2158,10 @@
       </c>
       <c r="C4" s="16"/>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2088,7 +2172,7 @@
     </row>
     <row r="5" spans="1:12" ht="34">
       <c r="A5" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" s="21">
         <f t="shared" si="0"/>
@@ -2097,7 +2181,7 @@
       <c r="F5"/>
       <c r="G5" s="16"/>
       <c r="H5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -2106,14 +2190,14 @@
     </row>
     <row r="6" spans="1:12" ht="34">
       <c r="A6" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="21">
         <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
@@ -2127,20 +2211,20 @@
     </row>
     <row r="7" spans="1:12" ht="34">
       <c r="A7" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2151,7 +2235,7 @@
     </row>
     <row r="8" spans="1:12" ht="34">
       <c r="A8" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="21">
         <f t="shared" si="0"/>
@@ -2159,7 +2243,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="E8" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2170,7 +2254,7 @@
     </row>
     <row r="9" spans="1:12" ht="68">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="21">
         <f>A9-2134</f>
@@ -2180,22 +2264,22 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="34">
       <c r="A10" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="21">
         <f>A10-2134</f>
@@ -2203,7 +2287,7 @@
       </c>
       <c r="C10" s="16"/>
       <c r="F10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -2214,24 +2298,24 @@
     </row>
     <row r="11" spans="1:12" ht="34">
       <c r="A11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="21">
         <f t="shared" ref="B11:B43" si="1">A11-2134</f>
         <v>-44</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -2240,7 +2324,7 @@
     </row>
     <row r="12" spans="1:12" ht="102">
       <c r="A12" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="21">
         <f t="shared" si="1"/>
@@ -2249,14 +2333,14 @@
       <c r="C12" s="16"/>
       <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -2264,7 +2348,7 @@
     </row>
     <row r="13" spans="1:12" ht="119">
       <c r="A13" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13" s="21">
         <f t="shared" si="1"/>
@@ -2272,11 +2356,11 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E13" s="19"/>
       <c r="G13" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -2286,7 +2370,7 @@
     </row>
     <row r="14" spans="1:12" ht="34">
       <c r="A14" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="21">
         <f t="shared" si="1"/>
@@ -2295,22 +2379,22 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="85">
       <c r="A15" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B15" s="34">
         <f t="shared" ref="B15" si="2">RIGHT(A15,4)-2134</f>
@@ -2319,7 +2403,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -2329,7 +2413,7 @@
     </row>
     <row r="16" spans="1:12" ht="51">
       <c r="A16" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="21">
         <f t="shared" si="1"/>
@@ -2339,7 +2423,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2349,7 +2433,7 @@
     </row>
     <row r="17" spans="1:12" ht="85">
       <c r="A17" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="21">
         <f t="shared" si="1"/>
@@ -2357,7 +2441,7 @@
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2367,14 +2451,14 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="21">
         <f t="shared" si="1"/>
         <v>-34</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="16"/>
@@ -2387,19 +2471,19 @@
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="A19" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="21">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="16"/>
       <c r="F19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -2407,12 +2491,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="68">
       <c r="A20" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B20" s="21">
         <f t="shared" si="1"/>
@@ -2420,11 +2504,11 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -2435,7 +2519,7 @@
     </row>
     <row r="21" spans="1:12" ht="85">
       <c r="A21" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="21">
         <f t="shared" si="1"/>
@@ -2444,11 +2528,11 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -2457,7 +2541,7 @@
     </row>
     <row r="22" spans="1:12" ht="51">
       <c r="A22" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="21">
         <f t="shared" si="1"/>
@@ -2469,7 +2553,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -2477,19 +2561,19 @@
     </row>
     <row r="23" spans="1:12" ht="34">
       <c r="A23" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B23" s="21">
         <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="16"/>
       <c r="F23" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -2500,7 +2584,7 @@
     </row>
     <row r="24" spans="1:12" ht="34">
       <c r="A24" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B24" s="21">
         <f t="shared" si="1"/>
@@ -2509,7 +2593,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -2520,22 +2604,22 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="A25" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B25" s="21">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -2544,19 +2628,19 @@
     </row>
     <row r="26" spans="1:12" ht="17">
       <c r="A26" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="21">
         <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="16"/>
       <c r="F26" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -2566,7 +2650,7 @@
     </row>
     <row r="27" spans="1:12" ht="51">
       <c r="A27" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="21">
         <f t="shared" si="1"/>
@@ -2574,14 +2658,14 @@
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -2590,14 +2674,14 @@
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="A28" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="21">
         <f t="shared" si="1"/>
         <v>-19</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -2605,30 +2689,32 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:12" ht="102">
+    <row r="29" spans="1:12" ht="68">
       <c r="A29" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="21">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="E29" s="19"/>
       <c r="F29" s="16" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
@@ -2636,7 +2722,7 @@
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="A30" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="21">
         <f t="shared" si="1"/>
@@ -2646,7 +2732,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="G30" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H30" s="16"/>
       <c r="J30" s="16"/>
@@ -2655,7 +2741,7 @@
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="A31" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B31" s="21">
         <f t="shared" si="1"/>
@@ -2664,7 +2750,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="F31" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2673,16 +2759,16 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12" ht="17">
+    <row r="32" spans="1:12" ht="34">
       <c r="A32" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="21">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -2692,30 +2778,30 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" ht="85">
-      <c r="A33" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="39">
+    <row r="33" spans="1:12" s="41" customFormat="1" ht="85">
+      <c r="A33" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="38">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="1:12" ht="51">
       <c r="A34" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" s="21">
         <f t="shared" si="1"/>
@@ -2723,7 +2809,7 @@
       </c>
       <c r="C34" s="16"/>
       <c r="F34" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -2731,12 +2817,12 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="A35" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B35" s="21">
         <f t="shared" si="1"/>
@@ -2746,7 +2832,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -2757,7 +2843,7 @@
     </row>
     <row r="36" spans="1:12" ht="17">
       <c r="A36" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B36" s="21">
         <f t="shared" si="1"/>
@@ -2767,7 +2853,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -2778,7 +2864,7 @@
     </row>
     <row r="37" spans="1:12" ht="34">
       <c r="A37" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="21">
         <f t="shared" si="1"/>
@@ -2788,11 +2874,11 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -2801,19 +2887,19 @@
     </row>
     <row r="38" spans="1:12" ht="153">
       <c r="A38" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" s="21">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="16"/>
       <c r="F38" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -2824,23 +2910,23 @@
     </row>
     <row r="39" spans="1:12" ht="34">
       <c r="A39" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="21">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="16"/>
       <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -2849,7 +2935,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B40" s="21">
         <f t="shared" si="1"/>
@@ -2867,23 +2953,23 @@
     </row>
     <row r="41" spans="1:12" ht="68">
       <c r="A41" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="21">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -2894,18 +2980,18 @@
     </row>
     <row r="42" spans="1:12" ht="34">
       <c r="A42" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" s="21">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -2917,7 +3003,7 @@
     </row>
     <row r="43" spans="1:12" s="5" customFormat="1" ht="17">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
@@ -2927,7 +3013,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2938,17 +3024,17 @@
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" ht="51">
       <c r="A44" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="24">
-        <f t="shared" ref="B44:B55" si="3">RIGHT(A44,4)-2134</f>
+        <f t="shared" ref="B44:B58" si="3">RIGHT(A44,4)-2134</f>
         <v>-2</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2959,17 +3045,17 @@
     </row>
     <row r="45" spans="1:12" s="8" customFormat="1" ht="51">
       <c r="A45" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B45" s="24">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -2982,7 +3068,7 @@
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" ht="85">
       <c r="A46" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B46" s="24">
         <f t="shared" si="3"/>
@@ -2990,26 +3076,26 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" s="8" customFormat="1" ht="68">
       <c r="A47" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="24">
         <f t="shared" si="3"/>
@@ -3021,18 +3107,18 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" s="8" customFormat="1" ht="68">
       <c r="A48" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48" s="24">
         <f t="shared" si="3"/>
@@ -3040,25 +3126,25 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" ht="34">
       <c r="A49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="24">
         <f t="shared" si="3"/>
@@ -3068,7 +3154,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3079,7 +3165,7 @@
     </row>
     <row r="50" spans="1:12" s="8" customFormat="1" ht="68">
       <c r="A50" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B50" s="24">
         <f t="shared" si="3"/>
@@ -3088,23 +3174,23 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="51">
       <c r="A51" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="24">
         <f t="shared" si="3"/>
@@ -3112,26 +3198,26 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" s="8" customFormat="1" ht="17">
+    <row r="52" spans="1:12" s="8" customFormat="1" ht="51">
       <c r="A52" s="6" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="B52" s="24">
         <f t="shared" si="3"/>
@@ -3140,19 +3226,19 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="F52" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" s="8" customFormat="1" ht="51">
+    <row r="53" spans="1:12" s="8" customFormat="1" ht="34">
       <c r="A53" s="6" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="B53" s="24">
         <f t="shared" si="3"/>
@@ -3160,141 +3246,136 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="51">
-      <c r="A54" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="15">
+    <row r="54" spans="1:12" s="8" customFormat="1" ht="17">
+      <c r="A54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" ht="51">
-      <c r="A55" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B55" s="15">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" s="8" customFormat="1" ht="51">
+      <c r="A55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" spans="1:12" ht="51">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" ht="85">
       <c r="A56" s="18" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="B56" s="15">
-        <f>RIGHT(A56,4)-2134</f>
-        <v>1</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="23"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
+        <v>345</v>
+      </c>
       <c r="E56" s="33"/>
-      <c r="F56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="1:12" ht="34">
+    <row r="57" spans="1:12">
       <c r="A57" s="18" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="B57" s="15">
-        <f>RIGHT(A57,4)-2134</f>
-        <v>1</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="16" t="s">
-        <v>292</v>
-      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="16" t="s">
-        <v>219</v>
-      </c>
+      <c r="K57" s="16"/>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="1:12" ht="68">
-      <c r="A58" s="15" t="s">
-        <v>88</v>
+    <row r="58" spans="1:12" ht="51">
+      <c r="A58" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="B58" s="15">
-        <f>RIGHT(A58,4)-2134</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="36" t="s">
+        <v>310</v>
+      </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12" ht="34">
-      <c r="A59" s="15" t="s">
-        <v>192</v>
+    <row r="59" spans="1:12" ht="51">
+      <c r="A59" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="B59" s="15">
         <f>RIGHT(A59,4)-2134</f>
-        <v>2</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -3305,240 +3386,241 @@
     </row>
     <row r="60" spans="1:12" ht="34">
       <c r="A60" s="18" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" ref="B60:B115" si="4">RIGHT(A60,4)-2134</f>
-        <v>2</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+        <f>RIGHT(A60,4)-2134</f>
+        <v>1</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="G60" s="16"/>
-      <c r="H60" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="H60" s="16"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="K60" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12" ht="68">
-      <c r="A61" s="18" t="s">
-        <v>41</v>
+      <c r="A61" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="16"/>
+        <f>RIGHT(A61,4)-2134</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12" ht="34">
-      <c r="A62" s="18" t="s">
-        <v>273</v>
+      <c r="A62" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="B62" s="15">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="17"/>
+        <f>RIGHT(A62,4)-2134</f>
+        <v>2</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="16" t="s">
-        <v>274</v>
-      </c>
+      <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12" ht="17">
-      <c r="A63" s="15" t="s">
-        <v>83</v>
+    <row r="63" spans="1:12" ht="34">
+      <c r="A63" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
+        <f t="shared" ref="B63:B123" si="4">RIGHT(A63,4)-2134</f>
+        <v>2</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="H63" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12" ht="85">
-      <c r="A64" s="15" t="s">
-        <v>27</v>
+    <row r="64" spans="1:12" ht="68">
+      <c r="A64" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B64" s="15">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="E64" s="19" t="s">
-        <v>289</v>
+        <v>2</v>
+      </c>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-    </row>
-    <row r="65" spans="1:12" ht="51">
-      <c r="A65" s="15" t="s">
-        <v>45</v>
+      <c r="L64" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="34">
+      <c r="A65" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="B65" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
-        <v>293</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="H65" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="51">
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" ht="17">
       <c r="A66" s="15" t="s">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="B66" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="D66" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="I66" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" ht="68">
+    <row r="67" spans="1:12" ht="85">
       <c r="A67" s="15" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B67" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17" t="s">
-        <v>317</v>
-      </c>
+      <c r="E67" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" s="17"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="1:12" ht="68">
+    <row r="68" spans="1:12" ht="51">
       <c r="A68" s="15" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B68" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="16"/>
+      <c r="F68" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="68">
-      <c r="A69" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-    </row>
-    <row r="70" spans="1:12" ht="34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="51">
+      <c r="A69" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+    </row>
+    <row r="70" spans="1:12" ht="51">
       <c r="A70" s="15" t="s">
-        <v>53</v>
+        <v>352</v>
       </c>
       <c r="B70" s="15">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="D70" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -3546,105 +3628,110 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="1:12" ht="136">
+    <row r="71" spans="1:12" ht="68">
       <c r="A71" s="15" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B71" s="15">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>57</v>
+      <c r="D71" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="H71" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="1:12" ht="34">
+    <row r="72" spans="1:12" ht="68">
       <c r="A72" s="15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B72" s="15">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C72" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="E72" s="16"/>
       <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="G72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="68">
-      <c r="A73" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="15">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="A73" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="1:12" ht="34">
       <c r="A74" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" s="15">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="H74" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="1:12" ht="51">
+    <row r="75" spans="1:12" ht="136">
       <c r="A75" s="15" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B75" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C75" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="16"/>
       <c r="F75" s="16" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -3653,139 +3740,134 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="1:12" ht="17">
+    <row r="76" spans="1:12" ht="34">
       <c r="A76" s="15" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="B76" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="16" t="s">
-        <v>295</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="77" spans="1:12" ht="17">
+      <c r="L76" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="68">
       <c r="A77" s="15" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B77" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
+      <c r="L77" s="16" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="34">
       <c r="A78" s="15" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="B78" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="D78" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="51">
+      <c r="L78" s="16"/>
+    </row>
+    <row r="79" spans="1:12" ht="34">
       <c r="A79" s="15" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B79" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H79" s="16"/>
+      <c r="F79" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
-      <c r="L79" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="17">
+      <c r="L79" s="16"/>
+    </row>
+    <row r="80" spans="1:12" ht="51">
       <c r="A80" s="15" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="31"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="F80" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="1:12" ht="85">
+    <row r="81" spans="1:12" ht="17">
       <c r="A81" s="15" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="B81" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="I81" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="1:12" ht="102">
+    <row r="82" spans="1:12" ht="17">
       <c r="A82" s="15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B82" s="15">
         <f t="shared" si="4"/>
@@ -3795,19 +3877,18 @@
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
     </row>
     <row r="83" spans="1:12" ht="34">
       <c r="A83" s="15" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="B83" s="15">
         <f t="shared" si="4"/>
@@ -3816,18 +3897,19 @@
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
-        <v>305</v>
-      </c>
+      <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="51">
       <c r="A84" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" s="15">
         <f t="shared" si="4"/>
@@ -3838,173 +3920,177 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
       <c r="L84" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="17">
       <c r="A85" s="15" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B85" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="D85" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G85" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="1:12" ht="34">
+    <row r="86" spans="1:12" ht="51">
       <c r="A86" s="15" t="s">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="B86" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="D86" s="16" t="s">
+        <v>359</v>
+      </c>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H86" s="16"/>
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="1:12" ht="51">
+    <row r="87" spans="1:12" ht="85">
       <c r="A87" s="15" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="B87" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C87" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="I87" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="1:12" ht="51">
+    <row r="88" spans="1:12" ht="102">
       <c r="A88" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B88" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="H88" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="16"/>
+        <v>78</v>
+      </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
-      <c r="L88" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="68">
+      <c r="L88" s="16"/>
+    </row>
+    <row r="89" spans="1:12" ht="34">
       <c r="A89" s="15" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="D89" s="16" t="s">
+        <v>360</v>
+      </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="F89" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="1:12" ht="34">
+    <row r="90" spans="1:12" ht="51">
       <c r="A90" s="15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B90" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" s="16"/>
+      <c r="G90" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-    </row>
-    <row r="91" spans="1:12" ht="68">
+      <c r="L90" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="34">
       <c r="A91" s="15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B91" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="16" t="s">
-        <v>71</v>
+      <c r="H91" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
-      <c r="L91" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="68">
+      <c r="L91" s="16"/>
+    </row>
+    <row r="92" spans="1:12" ht="34">
       <c r="A92" s="15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B92" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -4012,18 +4098,16 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
-      <c r="L92" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="L92" s="16"/>
     </row>
     <row r="93" spans="1:12" ht="51">
       <c r="A93" s="15" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B93" s="15">
         <f t="shared" si="4"/>
@@ -4033,22 +4117,18 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="G93" s="16"/>
-      <c r="H93" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
-      <c r="L93" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="68">
+      <c r="L93" s="16"/>
+    </row>
+    <row r="94" spans="1:12" ht="51">
       <c r="A94" s="15" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B94" s="15">
         <f t="shared" si="4"/>
@@ -4058,20 +4138,20 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
-      <c r="G94" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="G94" s="16"/>
       <c r="H94" s="16" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
+      <c r="L94" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="95" spans="1:12" ht="68">
       <c r="A95" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B95" s="15">
         <f t="shared" si="4"/>
@@ -4082,23 +4162,17 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H95" s="16"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="J95" s="16"/>
       <c r="K95" s="16"/>
-      <c r="L95" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="153">
+      <c r="L95" s="16"/>
+    </row>
+    <row r="96" spans="1:12" ht="34">
       <c r="A96" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B96" s="15">
         <f t="shared" si="4"/>
@@ -4107,14 +4181,10 @@
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>109</v>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
@@ -4123,34 +4193,33 @@
     </row>
     <row r="97" spans="1:12" ht="68">
       <c r="A97" s="15" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B97" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
       <c r="L97" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="68">
       <c r="A98" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B98" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -4158,108 +4227,122 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
       <c r="L98" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="51">
       <c r="A99" s="15" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B99" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>218</v>
+        <v>131</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-    </row>
-    <row r="100" spans="1:12" ht="51">
+      <c r="L99" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="85">
       <c r="A100" s="15" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B100" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+      <c r="D100" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
-      <c r="G100" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>120</v>
+      <c r="G100" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="1:12" ht="34">
+    <row r="101" spans="1:12" ht="68">
       <c r="A101" s="15" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="B101" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
+      <c r="D101" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
-      <c r="G101" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H101" s="16"/>
+      <c r="G101" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
+      <c r="J101" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-    </row>
-    <row r="102" spans="1:12" ht="68">
+      <c r="L101" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="153">
       <c r="A102" s="15" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B102" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="16"/>
+      <c r="F102" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
       <c r="K102" s="16"/>
-      <c r="L102" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="34">
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="1:12" ht="68">
       <c r="A103" s="15" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B103" s="15">
         <f t="shared" si="4"/>
@@ -4269,18 +4352,20 @@
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-    </row>
-    <row r="104" spans="1:12" ht="68">
+      <c r="L103" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="51">
       <c r="A104" s="15" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B104" s="15">
         <f t="shared" si="4"/>
@@ -4290,103 +4375,102 @@
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-    </row>
-    <row r="105" spans="1:12" ht="68">
+      <c r="L104" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="119">
       <c r="A105" s="15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B105" s="15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="D105" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="E105" s="16"/>
-      <c r="F105" s="16" t="s">
-        <v>271</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H105" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="L105" s="16"/>
     </row>
     <row r="106" spans="1:12" ht="51">
       <c r="A106" s="15" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B106" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="16" t="s">
-        <v>221</v>
-      </c>
+      <c r="L106" s="16"/>
     </row>
     <row r="107" spans="1:12" ht="51">
       <c r="A107" s="15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B107" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+      <c r="D107" s="16" t="s">
+        <v>347</v>
+      </c>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="G107" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
-      <c r="L107" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="85">
+      <c r="L107" s="16"/>
+    </row>
+    <row r="108" spans="1:12" ht="68">
       <c r="A108" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B108" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16" t="s">
+        <v>361</v>
+      </c>
       <c r="E108" s="16"/>
-      <c r="F108" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="7"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -4395,147 +4479,328 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="51">
+    <row r="109" spans="1:12" ht="34">
       <c r="A109" s="15" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="B109" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19" t="s">
-        <v>326</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="G109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="1:12" ht="102">
+    <row r="110" spans="1:12" ht="68">
       <c r="A110" s="15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B110" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" s="16"/>
-      <c r="D110" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
-      <c r="L110" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="L110" s="16"/>
     </row>
     <row r="111" spans="1:12" ht="68">
       <c r="A111" s="15" t="s">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="B111" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" s="16"/>
-      <c r="D111" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
+      <c r="L111" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="51">
       <c r="A112" s="15" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="B112" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>328</v>
-      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="16"/>
+      <c r="F112" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-    </row>
-    <row r="113" spans="1:12" ht="68">
+      <c r="L112" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="51">
       <c r="A113" s="15" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B113" s="15">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G113" s="16" t="s">
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-    </row>
-    <row r="114" spans="1:12" ht="34">
-      <c r="A114" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B114" s="30">
+      <c r="L113" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="85">
+      <c r="A114" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="51">
+      <c r="A115" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+    </row>
+    <row r="116" spans="1:12" ht="68">
+      <c r="A116" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B116" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+    </row>
+    <row r="117" spans="1:12" ht="102">
+      <c r="A117" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="68">
+      <c r="A118" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+    </row>
+    <row r="119" spans="1:12" ht="51">
+      <c r="A119" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B119" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+    </row>
+    <row r="120" spans="1:12" ht="68">
+      <c r="A120" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="15">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="51">
-      <c r="A115" s="2" t="s">
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+    </row>
+    <row r="121" spans="1:12" ht="34">
+      <c r="A121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="30">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="30">
+    </row>
+    <row r="122" spans="1:12" ht="68">
+      <c r="A122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="34">
+      <c r="A123" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B123" s="30">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>333</v>
       </c>
     </row>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70079F73-5912-E041-B7BE-E9AAE8D4066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DA7E6-D702-8C43-A348-62BC2CC4A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -1327,6 +1327,15 @@
   </si>
   <si>
     <t>Tharsis-liitto julistautuu itseenäiseksi valtioksi</t>
+  </si>
+  <si>
+    <t>Havana de Cielon parlamenttivaaleissa murskavoitto biokonservatiiveille</t>
+  </si>
+  <si>
+    <t>05/2147</t>
+  </si>
+  <si>
+    <t>OCE deaktivoidaan</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1614,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1691,6 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2053,13 +2063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3456,7 +3466,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" ref="B63:B123" si="4">RIGHT(A63,4)-2134</f>
+        <f t="shared" ref="B63:B124" si="4">RIGHT(A63,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C63" s="33"/>
@@ -4674,7 +4684,9 @@
       <c r="E117" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="G117" s="16"/>
+      <c r="G117" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
@@ -4802,6 +4814,18 @@
       </c>
       <c r="E123" s="1" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="17">
+      <c r="A124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124" s="43">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DA7E6-D702-8C43-A348-62BC2CC4A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D9F16-8D19-F540-B49D-21326A993336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -1336,6 +1336,27 @@
   </si>
   <si>
     <t>OCE deaktivoidaan</t>
+  </si>
+  <si>
+    <t>Nuevo Santiago perustetaan</t>
+  </si>
+  <si>
+    <t>Jupiterin tasavalta rajoittaa huomattavasti asevelvollisuutta suorittamattomien oikeutta osallistua yhteiskuntaan</t>
+  </si>
+  <si>
+    <t>Havana de Cielo perustetaan</t>
+  </si>
+  <si>
+    <t>0572136</t>
+  </si>
+  <si>
+    <t>Varakomentaja Davis "vetäytyy eläkkeelle" (tai katoaa jälkiä jättämättä) Turvallisuusneuvostosta</t>
+  </si>
+  <si>
+    <t>07/2147</t>
+  </si>
+  <si>
+    <t>Havana de Cielo ottaa vastaan Jupiterin tasavallan protektoraatin aseman.</t>
   </si>
 </sst>
 </file>
@@ -2063,13 +2084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2496,7 +2517,9 @@
         <v>287</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2561,7 +2584,9 @@
       <c r="D22" s="19"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="I22" s="16" t="s">
         <v>237</v>
       </c>
@@ -3417,7 +3442,7 @@
       </c>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="1:12" ht="68">
+    <row r="61" spans="1:12" ht="102">
       <c r="A61" s="15" t="s">
         <v>87</v>
       </c>
@@ -3434,7 +3459,9 @@
       <c r="G61" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H61" s="16"/>
+      <c r="H61" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
@@ -3461,176 +3488,177 @@
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12" ht="34">
-      <c r="A63" s="18" t="s">
-        <v>95</v>
+    <row r="63" spans="1:12" ht="68">
+      <c r="A63" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" ref="B63:B124" si="4">RIGHT(A63,4)-2134</f>
+        <f>RIGHT(A63,4)-2134</f>
         <v>2</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12" ht="68">
+    <row r="64" spans="1:12" ht="34">
       <c r="A64" s="18" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B64:B126" si="4">RIGHT(A64,4)-2134</f>
         <v>2</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F64" s="17"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="34">
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="1:12" ht="68">
       <c r="A65" s="18" t="s">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="B65" s="15">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="E65" s="33" t="s">
+        <v>285</v>
+      </c>
       <c r="F65" s="17"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="16" t="s">
-        <v>272</v>
-      </c>
+      <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="1:12" ht="17">
-      <c r="A66" s="15" t="s">
-        <v>82</v>
+      <c r="L65" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="34">
+      <c r="A66" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="B66" s="15">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E66" s="16"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="H66" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" ht="85">
+    <row r="67" spans="1:12" ht="17">
       <c r="A67" s="15" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B67" s="15">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C67" s="16"/>
-      <c r="E67" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="D67" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E67" s="16"/>
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="1:12" ht="51">
+    <row r="68" spans="1:12" ht="85">
       <c r="A68" s="15" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B68" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16" t="s">
-        <v>290</v>
-      </c>
+      <c r="E68" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="17"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="H68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="L68" s="16"/>
     </row>
     <row r="69" spans="1:12" ht="51">
       <c r="A69" s="15" t="s">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="B69" s="15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C69" s="16"/>
-      <c r="D69" s="16" t="s">
-        <v>312</v>
-      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="I69" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
+      <c r="L69" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="51">
       <c r="A70" s="15" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="B70" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F70" s="16"/>
+        <v>312</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -3638,9 +3666,9 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="1:12" ht="68">
+    <row r="71" spans="1:12" ht="51">
       <c r="A71" s="15" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="B71" s="15">
         <f t="shared" si="4"/>
@@ -3648,16 +3676,11 @@
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17" t="s">
-        <v>313</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="16" t="s">
-        <v>74</v>
-      </c>
+      <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
@@ -3665,83 +3688,85 @@
     </row>
     <row r="72" spans="1:12" ht="68">
       <c r="A72" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" s="15">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="F72" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
-      <c r="L72" s="16" t="s">
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="1:12" ht="68">
+      <c r="A73" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="68">
-      <c r="A73" s="26" t="s">
+    <row r="74" spans="1:12" ht="68">
+      <c r="A74" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B74" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-    </row>
-    <row r="74" spans="1:12" ht="34">
-      <c r="A74" s="15" t="s">
+      <c r="F74" s="28"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+    </row>
+    <row r="75" spans="1:12" ht="34">
+      <c r="A75" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B75" s="15">
         <f t="shared" si="4"/>
         <v>6</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-    </row>
-    <row r="75" spans="1:12" ht="136">
-      <c r="A75" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="15">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
-      <c r="E75" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E75" s="16"/>
       <c r="F75" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -3750,36 +3775,38 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="1:12" ht="34">
+    <row r="76" spans="1:12" ht="136">
       <c r="A76" s="15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B76" s="15">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C76" s="16"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="68">
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="1:12" ht="34">
       <c r="A77" s="15" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B77" s="15">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -3787,87 +3814,87 @@
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
       <c r="L77" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="68">
       <c r="A78" s="15" t="s">
-        <v>355</v>
+        <v>93</v>
       </c>
       <c r="B78" s="15">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C78" s="16"/>
-      <c r="D78" s="1" t="s">
-        <v>354</v>
-      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
+      <c r="L78" s="16" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="34">
       <c r="A79" s="15" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="B79" s="15">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C79" s="16"/>
-      <c r="F79" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="D79" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="1:12" ht="51">
+    <row r="80" spans="1:12" ht="34">
       <c r="A80" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="C80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="1:12" ht="17">
+    <row r="81" spans="1:12" ht="51">
       <c r="A81" s="15" t="s">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="B81" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="D81" s="31"/>
-      <c r="E81" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
@@ -3877,28 +3904,28 @@
     </row>
     <row r="82" spans="1:12" ht="17">
       <c r="A82" s="15" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="B82" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="1:12" ht="34">
+    <row r="83" spans="1:12" ht="17">
       <c r="A83" s="15" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B83" s="15">
         <f t="shared" si="4"/>
@@ -3909,17 +3936,17 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="51">
+      <c r="L83" s="16"/>
+    </row>
+    <row r="84" spans="1:12" ht="34">
       <c r="A84" s="15" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B84" s="15">
         <f t="shared" si="4"/>
@@ -3929,43 +3956,41 @@
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
       <c r="L84" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="51">
       <c r="A85" s="15" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B85" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
-        <v>343</v>
-      </c>
+      <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-    </row>
-    <row r="86" spans="1:12" ht="51">
+      <c r="L85" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17">
       <c r="A86" s="15" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
       <c r="B86" s="15">
         <f t="shared" si="4"/>
@@ -3973,109 +3998,110 @@
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="1:12" ht="85">
+    <row r="87" spans="1:12" ht="51">
       <c r="A87" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B87" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16" t="s">
+        <v>359</v>
+      </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="I87" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="1:12" ht="102">
+    <row r="88" spans="1:12" ht="85">
       <c r="A88" s="15" t="s">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="B88" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C88" s="16"/>
+      <c r="C88" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>78</v>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="1:12" ht="34">
+    <row r="89" spans="1:12" ht="102">
       <c r="A89" s="15" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C89" s="16"/>
-      <c r="D89" s="16" t="s">
-        <v>360</v>
-      </c>
+      <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="1:12" ht="51">
+    <row r="90" spans="1:12" ht="34">
       <c r="A90" s="15" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="B90" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="16" t="s">
+        <v>360</v>
+      </c>
       <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="F90" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="34">
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="1:12" ht="51">
       <c r="A91" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="15">
         <f t="shared" si="4"/>
@@ -4085,18 +4111,19 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="16"/>
+      <c r="G91" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="1:12" ht="34">
       <c r="A92" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92" s="15">
         <f t="shared" si="4"/>
@@ -4107,30 +4134,30 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="16" t="s">
-        <v>16</v>
+      <c r="H92" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="1:12" ht="51">
+    <row r="93" spans="1:12" ht="34">
       <c r="A93" s="15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B93" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F93" s="16"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
@@ -4138,7 +4165,7 @@
     </row>
     <row r="94" spans="1:12" ht="51">
       <c r="A94" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B94" s="15">
         <f t="shared" si="4"/>
@@ -4147,21 +4174,19 @@
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
+      <c r="F94" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="G94" s="16"/>
-      <c r="H94" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="H94" s="16"/>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
-      <c r="L94" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="68">
+      <c r="L94" s="16"/>
+    </row>
+    <row r="95" spans="1:12" ht="51">
       <c r="A95" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B95" s="15">
         <f t="shared" si="4"/>
@@ -4171,18 +4196,20 @@
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
-      <c r="G95" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-    </row>
-    <row r="96" spans="1:12" ht="34">
+      <c r="L95" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="68">
       <c r="A96" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B96" s="15">
         <f t="shared" si="4"/>
@@ -4192,63 +4219,61 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="G96" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H96" s="16"/>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="1:12" ht="68">
+    <row r="97" spans="1:12" ht="34">
       <c r="A97" s="15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B97" s="15">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="16" t="s">
-        <v>70</v>
+      <c r="H97" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
-      <c r="L97" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="L97" s="16"/>
     </row>
     <row r="98" spans="1:12" ht="68">
       <c r="A98" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B98" s="15">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
       <c r="L98" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="68">
       <c r="A99" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B99" s="15">
         <f t="shared" si="4"/>
@@ -4257,48 +4282,46 @@
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
       <c r="L99" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="51">
       <c r="A100" s="15" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B100" s="15">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C100" s="16"/>
-      <c r="D100" s="16" t="s">
-        <v>346</v>
-      </c>
+      <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="F100" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="16"/>
       <c r="H100" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-    </row>
-    <row r="101" spans="1:12" ht="68">
+      <c r="L100" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="85">
       <c r="A101" s="15" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B101" s="15">
         <f t="shared" si="4"/>
@@ -4306,76 +4329,78 @@
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+    </row>
+    <row r="102" spans="1:12" ht="68">
+      <c r="A102" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H102" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16" t="s">
+      <c r="I102" s="16"/>
+      <c r="J102" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16" t="s">
+      <c r="K102" s="16"/>
+      <c r="L102" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="153">
-      <c r="A102" s="15" t="s">
+    <row r="103" spans="1:12" ht="153">
+      <c r="A103" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B103" s="15">
         <f t="shared" si="4"/>
         <v>10</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-    </row>
-    <row r="103" spans="1:12" ht="68">
-      <c r="A103" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="15">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
+      <c r="F103" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="H103" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="51">
+      <c r="L103" s="16"/>
+    </row>
+    <row r="104" spans="1:12" ht="68">
       <c r="A104" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B104" s="15">
         <f t="shared" si="4"/>
@@ -4387,56 +4412,56 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="119">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="51">
       <c r="A105" s="15" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B105" s="15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C105" s="16"/>
-      <c r="D105" s="16" t="s">
-        <v>315</v>
-      </c>
+      <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="G105" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>216</v>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-    </row>
-    <row r="106" spans="1:12" ht="51">
+      <c r="L105" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="119">
       <c r="A106" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B106" s="15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="D106" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
       <c r="G106" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
@@ -4445,30 +4470,30 @@
     </row>
     <row r="107" spans="1:12" ht="51">
       <c r="A107" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" s="15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C107" s="16"/>
-      <c r="D107" s="16" t="s">
-        <v>347</v>
-      </c>
+      <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H107" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="1:12" ht="68">
+    <row r="108" spans="1:12" ht="51">
       <c r="A108" s="15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="15">
         <f t="shared" si="4"/>
@@ -4476,43 +4501,45 @@
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="G108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="34">
+      <c r="L108" s="16"/>
+    </row>
+    <row r="109" spans="1:12" ht="68">
       <c r="A109" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B109" s="15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="D109" s="16" t="s">
+        <v>361</v>
+      </c>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="G109" s="7"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-    </row>
-    <row r="110" spans="1:12" ht="68">
+      <c r="L109" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="34">
       <c r="A110" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B110" s="15">
         <f t="shared" si="4"/>
@@ -4523,7 +4550,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
@@ -4533,7 +4560,7 @@
     </row>
     <row r="111" spans="1:12" ht="68">
       <c r="A111" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B111" s="15">
         <f t="shared" si="4"/>
@@ -4542,46 +4569,44 @@
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="16" t="s">
-        <v>269</v>
-      </c>
+      <c r="F111" s="16"/>
       <c r="G111" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="51">
+      <c r="L111" s="16"/>
+    </row>
+    <row r="112" spans="1:12" ht="68">
       <c r="A112" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B112" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" s="16"/>
+        <v>269</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
       <c r="L112" s="16" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="51">
       <c r="A113" s="15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B113" s="15">
         <f t="shared" si="4"/>
@@ -4590,75 +4615,77 @@
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
+      <c r="F113" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="G113" s="16"/>
-      <c r="H113" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
       <c r="L113" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="85">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="51">
       <c r="A114" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B114" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C114" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="19"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="16" t="s">
-        <v>268</v>
-      </c>
+      <c r="F114" s="16"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
+      <c r="H114" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="51">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="85">
       <c r="A115" s="15" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="B115" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19" t="s">
-        <v>322</v>
-      </c>
+      <c r="C115" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="19"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
+      <c r="F115" s="16" t="s">
+        <v>268</v>
+      </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-    </row>
-    <row r="116" spans="1:12" ht="68">
+      <c r="L115" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="51">
       <c r="A116" s="15" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B116" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C116" s="19"/>
-      <c r="D116" s="16" t="s">
-        <v>337</v>
+      <c r="D116" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
@@ -4669,35 +4696,30 @@
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="1:12" ht="102">
+    <row r="117" spans="1:12" ht="68">
       <c r="A117" s="15" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="B117" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C117" s="16"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>365</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="68">
+      <c r="L117" s="16"/>
+    </row>
+    <row r="118" spans="1:12" ht="102">
       <c r="A118" s="15" t="s">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="B118" s="15">
         <f t="shared" si="4"/>
@@ -4705,33 +4727,37 @@
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="G118" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-    </row>
-    <row r="119" spans="1:12" ht="51">
+      <c r="L118" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="68">
       <c r="A119" s="15" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B119" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>306</v>
-      </c>
+      <c r="C119" s="16"/>
       <c r="D119" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="E119" s="16"/>
+        <v>325</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
@@ -4739,93 +4765,127 @@
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="1:12" ht="68">
+    <row r="120" spans="1:12" ht="51">
       <c r="A120" s="15" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="B120" s="15">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="E120" s="16"/>
-      <c r="F120" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="1:12" ht="34">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:12" ht="68">
+      <c r="A121" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+    </row>
+    <row r="122" spans="1:12" ht="34">
+      <c r="A122" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B122" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D122" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="68">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:12" ht="68">
+      <c r="A123" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B122" s="30">
+      <c r="B123" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="34">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:12" ht="34">
+      <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B124" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="17">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:12" ht="17">
+      <c r="A125" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="43">
+      <c r="B125" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="68">
+      <c r="A126" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="43">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/posthuman_timeline.xlsx
+++ b/posthuman_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D9F16-8D19-F540-B49D-21326A993336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF26CC4-2622-C44B-9612-6A2420D76835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>Asteroidit</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>Madison Bell pidätetään ja hän menettää morfinsa</t>
   </si>
   <si>
-    <t>TX:n bändi #1 perustetaan</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1293,9 +1290,6 @@
     <t>01/2140</t>
   </si>
   <si>
-    <t>Bändi #1 alkaa saada underground-piireissä huomiota</t>
-  </si>
-  <si>
     <t>TX Wang muuttaa Elysium Cityyn</t>
   </si>
   <si>
@@ -1308,12 +1302,6 @@
     <t>08/2143</t>
   </si>
   <si>
-    <t>Bändi #1 saa levytysdiilin. Barsoomin liike värvää TX:n.</t>
-  </si>
-  <si>
-    <t>Bändi #1 breikkaa ja hajoaa. Bändi #2 perustetaan, Mutant Records ottaa tämän talliinsa.</t>
-  </si>
-  <si>
     <t>TX muuttaa uuteen asuntoon Chinatownissa</t>
   </si>
   <si>
@@ -1357,6 +1345,62 @@
   </si>
   <si>
     <t>Havana de Cielo ottaa vastaan Jupiterin tasavallan protektoraatin aseman.</t>
+  </si>
+  <si>
+    <t>Emeraldinen FOMO-kiertue alkaa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sokolev Way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -draamasarjan 1. kausi. Shayn näyttelijänura alkaa</t>
+    </r>
+  </si>
+  <si>
+    <t>TX:n Law &amp; Order alkaa saada underground-piireissä huomiota</t>
+  </si>
+  <si>
+    <t>Law &amp; Order saa levytysdiilin. Barsoomin liike värvää TX:n.</t>
+  </si>
+  <si>
+    <t>Law &amp; Order breikkaa ja hajoaa. Riot Kitten perustetaan, Mutant Records ottaa tämän talliinsa.</t>
+  </si>
+  <si>
+    <t>Xenophon Stepper perustaa Stepper's Refugen</t>
+  </si>
+  <si>
+    <t>Li Jie Wang syntyy (TX:n isä)</t>
+  </si>
+  <si>
+    <t>Wenli Chang syntyy (TX:n äiti)</t>
+  </si>
+  <si>
+    <t>TX:n bändi #1 (Law &amp; Order) perustetaan</t>
+  </si>
+  <si>
+    <t>RHUGO avaa autoradan Valles New Shanghaissa</t>
+  </si>
+  <si>
+    <t>Gavin Sonntag lakkaa yrittämästä toteuttaa Litha-projektia ja lähtee ovet paukkuen Extropiaan</t>
+  </si>
+  <si>
+    <t>Litha-projektia aletaan rakentaa Blackening Hub Alphan lähelle.</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1679,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1721,7 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2087,10 +2130,10 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2292,7 +2335,9 @@
         <v>-47</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>377</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
         <v>259</v>
@@ -2337,6 +2382,9 @@
       </c>
       <c r="C11" s="16" t="s">
         <v>262</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>166</v>
@@ -2518,7 +2566,7 @@
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -2585,7 +2633,7 @@
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>237</v>
@@ -2736,11 +2784,11 @@
         <v>152</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>249</v>
@@ -2803,7 +2851,7 @@
         <v>-15</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3273,7 +3321,7 @@
     </row>
     <row r="53" spans="1:12" s="8" customFormat="1" ht="34">
       <c r="A53" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B53" s="24">
         <f t="shared" si="3"/>
@@ -3282,7 +3330,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3349,7 +3397,9 @@
       <c r="F56" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>376</v>
+      </c>
       <c r="H56" s="16" t="s">
         <v>76</v>
       </c>
@@ -3460,7 +3510,7 @@
         <v>88</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -3490,7 +3540,7 @@
     </row>
     <row r="63" spans="1:12" ht="68">
       <c r="A63" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B63" s="15">
         <f>RIGHT(A63,4)-2134</f>
@@ -3502,7 +3552,7 @@
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -3574,7 +3624,7 @@
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" ht="17">
+    <row r="67" spans="1:12" ht="34">
       <c r="A67" s="15" t="s">
         <v>82</v>
       </c>
@@ -3584,7 +3634,7 @@
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
@@ -3668,7 +3718,7 @@
     </row>
     <row r="71" spans="1:12" ht="51">
       <c r="A71" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B71" s="15">
         <f t="shared" si="4"/>
@@ -3676,7 +3726,7 @@
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -3696,9 +3746,11 @@
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72" s="16"/>
+        <v>374</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>382</v>
+      </c>
       <c r="F72" s="17" t="s">
         <v>313</v>
       </c>
@@ -3807,6 +3859,9 @@
         <v>7</v>
       </c>
       <c r="C77" s="16"/>
+      <c r="E77" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -3840,7 +3895,7 @@
     </row>
     <row r="79" spans="1:12" ht="34">
       <c r="A79" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B79" s="15">
         <f t="shared" si="4"/>
@@ -3848,7 +3903,7 @@
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -3988,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17">
+    <row r="86" spans="1:12" ht="51">
       <c r="A86" s="15" t="s">
         <v>65</v>
       </c>
@@ -4000,7 +4055,9 @@
       <c r="D86" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="16"/>
+      <c r="E86" s="16" t="s">
+        <v>372</v>
+      </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
         <v>66</v>
@@ -4011,9 +4068,9 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="1:12" ht="51">
+    <row r="87" spans="1:12" ht="68">
       <c r="A87" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B87" s="15">
         <f t="shared" si="4"/>
@@ -4021,7 +4078,7 @@
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
@@ -4034,7 +4091,7 @@
     </row>
     <row r="88" spans="1:12" ht="85">
       <c r="A88" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B88" s="15">
         <f t="shared" si="4"/>
@@ -4087,7 +4144,7 @@
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="16" t="s">
@@ -4524,7 +4581,7 @@
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
@@ -4568,7 +4625,9 @@
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="E111" s="16" t="s">
+        <v>381</v>
+      </c>
       <c r="F111" s="16"/>
       <c r="G111" s="7" t="s">
         <v>143</v>
@@ -4733,7 +4792,7 @@
         <v>336</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
@@ -4824,6 +4883,9 @@
       <c r="D122" s="19" t="s">
         <v>328</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="G122" s="7" t="s">
         <v>341</v>
       </c>
@@ -4866,26 +4928,26 @@
     </row>
     <row r="125" spans="1:12" ht="17">
       <c r="A125" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B125" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="68">
       <c r="A126" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B126" s="43">
+        <v>369</v>
+      </c>
+      <c r="B126" s="30">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
